--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -585,19 +585,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1236</v>
+        <v>12036</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>1164</v>
+        <v>11964</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>1164</v>
+        <v>11964</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -616,7 +616,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>1236</v>
+        <v>12036</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -634,16 +634,16 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>1236</v>
+        <v>12036</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>1164</v>
+        <v>11964</v>
       </c>
       <c r="N3" t="n">
-        <v>1236</v>
+        <v>12036</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -660,7 +660,7 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>1164</v>
+        <v>11964</v>
       </c>
       <c r="AD3" t="inlineStr"/>
     </row>
@@ -670,10 +670,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1164</v>
+        <v>11964</v>
       </c>
       <c r="D4" t="n">
-        <v>1164</v>
+        <v>11964</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -686,7 +686,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>1236</v>
+        <v>12036</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -699,7 +699,7 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>1236</v>
+        <v>12036</v>
       </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -726,21 +726,21 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1128</v>
+        <v>11928</v>
       </c>
       <c r="R5" t="n">
-        <v>1272</v>
+        <v>12072</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>1128</v>
+        <v>11928</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>1272</v>
+        <v>12072</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -756,19 +756,19 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>1140</v>
+        <v>11940</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>1140</v>
+        <v>11940</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>1188</v>
+        <v>11988</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -786,7 +786,7 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>1188</v>
+        <v>11988</v>
       </c>
       <c r="AD6" t="inlineStr"/>
     </row>
@@ -796,10 +796,10 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1185.754931176571</v>
+        <v>11985.75493117657</v>
       </c>
       <c r="D7" t="n">
-        <v>1185.754931176571</v>
+        <v>11985.75493117657</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -814,14 +814,14 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>1106.245068823429</v>
+        <v>11906.24506882343</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>1106.245068823429</v>
+        <v>11906.24506882343</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1224</v>
+        <v>12024</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -846,14 +846,14 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1248</v>
+        <v>12048</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>1248</v>
+        <v>12048</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -868,7 +868,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>1224</v>
+        <v>12024</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -892,12 +892,12 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1226.245068823429</v>
+        <v>12026.24506882343</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1281.754931176571</v>
+        <v>12081.75493117657</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -906,10 +906,10 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>1281.754931176571</v>
+        <v>12081.75493117657</v>
       </c>
       <c r="Z9" t="n">
-        <v>1226.245068823429</v>
+        <v>12026.24506882343</v>
       </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
@@ -922,10 +922,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1176.279801661901</v>
+        <v>11976.2798016619</v>
       </c>
       <c r="D10" t="n">
-        <v>1176.279801661901</v>
+        <v>11976.2798016619</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -938,7 +938,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1235.720198338099</v>
+        <v>12035.7201983381</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -951,7 +951,7 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>1235.720198338099</v>
+        <v>12035.7201983381</v>
       </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
@@ -963,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1209.754931176571</v>
+        <v>12009.75493117657</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -976,7 +976,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>1202.245068823429</v>
+        <v>12002.24506882343</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -992,11 +992,11 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>1209.754931176571</v>
+        <v>12009.75493117657</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>1202.245068823429</v>
+        <v>12002.24506882343</v>
       </c>
       <c r="AD11" t="inlineStr"/>
     </row>
@@ -1016,11 +1016,11 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>1192.332770690573</v>
+        <v>11992.33277069057</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>1245.632496470955</v>
+        <v>12045.63249647096</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>1245.632496470955</v>
+        <v>12045.63249647096</v>
       </c>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>1192.332770690573</v>
+        <v>11992.33277069057</v>
       </c>
       <c r="AD12" t="inlineStr"/>
     </row>
@@ -1054,20 +1054,20 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>1262.105142004774</v>
+        <v>12062.10514200477</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1262.105142004774</v>
+        <v>12062.10514200477</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>1267.649789171797</v>
+        <v>12067.6497891718</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>1267.649789171797</v>
+        <v>12067.6497891718</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
@@ -1102,12 +1102,12 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>1211.005840074326</v>
+        <v>12011.00584007433</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>1302.276445568426</v>
+        <v>12102.27644556843</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1116,10 +1116,10 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>1302.276445568426</v>
+        <v>12102.27644556843</v>
       </c>
       <c r="Z14" t="n">
-        <v>1211.005840074326</v>
+        <v>12011.00584007433</v>
       </c>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
@@ -1138,20 +1138,20 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>1252.610146852445</v>
+        <v>12052.61014685244</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1252.610146852445</v>
+        <v>12052.61014685244</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>1311.771440720756</v>
+        <v>12111.77144072076</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1160,7 +1160,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>1311.771440720756</v>
+        <v>12111.77144072076</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>1267.528052760113</v>
+        <v>12067.52805276011</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>1091.32716291576</v>
+        <v>11891.32716291576</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
@@ -1220,7 +1220,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>1212.608529783427</v>
+        <v>12012.60852978343</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>1197.146401393145</v>
+        <v>11997.14640139314</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -1249,7 +1249,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1155.314907046943</v>
+        <v>11955.31490704694</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="n">
-        <v>1160.685092953057</v>
+        <v>11960.68509295306</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>1212.686559221579</v>
+        <v>12012.68655922158</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1302,7 +1302,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1198.319280852747</v>
+        <v>11998.31928085275</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1332,13 +1332,13 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>1236.853263581029</v>
+        <v>12036.85326358103</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>1208.089653961989</v>
+        <v>12008.08965396199</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1385,10 +1385,10 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>1194.950949095781</v>
+        <v>11994.95094909578</v>
       </c>
       <c r="Y21" t="n">
-        <v>1316.820491624975</v>
+        <v>12116.82049162498</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -1409,7 +1409,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>1120.423994695146</v>
+        <v>11920.42399469515</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1427,7 +1427,7 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>1230.581845379179</v>
+        <v>12030.58184537918</v>
       </c>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
@@ -1439,7 +1439,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1193.923349371525</v>
+        <v>11993.92334937152</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>1158.537959068563</v>
+        <v>11958.53795906856</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>1222.450281450726</v>
+        <v>12022.45028145073</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1492,7 +1492,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>1212.722262983049</v>
+        <v>12012.72226298305</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1523,7 +1523,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>1113.066776939508</v>
+        <v>11913.06677693951</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1539,7 +1539,7 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
-        <v>1202.308166851419</v>
+        <v>12002.30816685142</v>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -1565,11 +1565,11 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>1227.320234001075</v>
+        <v>12027.32023400107</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>1240.207818759038</v>
+        <v>12040.20781875904</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -1600,7 +1600,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>1197.371560754119</v>
+        <v>11997.37156075412</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1608,7 +1608,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>1175.922061982365</v>
+        <v>11975.92206198236</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -1633,7 +1633,7 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>1224.399790865172</v>
+        <v>12024.39979086517</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1642,7 +1642,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>1196.376422318395</v>
+        <v>11996.3764223184</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -1690,10 +1690,10 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>1323.450634671302</v>
+        <v>12123.4506346713</v>
       </c>
       <c r="Z29" t="n">
-        <v>1223.951702332852</v>
+        <v>12023.95170233286</v>
       </c>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
@@ -1717,7 +1717,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1213.76014427888</v>
+        <v>12013.76014427888</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -1729,7 +1729,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>1215.868256573614</v>
+        <v>12015.86825657361</v>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -1752,13 +1752,13 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>1150.329130927378</v>
+        <v>11950.32913092738</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>1259.76469280979</v>
+        <v>12059.76469280979</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1170.076379794805</v>
+        <v>11970.0763797948</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1794,7 +1794,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>1220.223391895116</v>
+        <v>12020.22339189512</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1839,13 +1839,13 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>1063.564487777901</v>
+        <v>11863.5644877779</v>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
-        <v>1251.714377470711</v>
+        <v>12051.71437747071</v>
       </c>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>1293.027610254809</v>
+        <v>12093.02761025481</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -1881,7 +1881,7 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="n">
-        <v>1182.605339128595</v>
+        <v>11982.60533912859</v>
       </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -1906,7 +1906,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>1186.187414446049</v>
+        <v>11986.18741444605</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -1921,7 +1921,7 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>1285.750354919778</v>
+        <v>12085.75035491978</v>
       </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -1947,10 +1947,10 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>1224.201606690003</v>
+        <v>12024.20160669</v>
       </c>
       <c r="Q36" t="n">
-        <v>1191.9282740514</v>
+        <v>11991.9282740514</v>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -1975,7 +1975,7 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>1194.563778374491</v>
+        <v>11994.56377837449</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1996,7 +1996,7 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="n">
-        <v>1353.286647161983</v>
+        <v>12153.28664716198</v>
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
@@ -2023,7 +2023,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>1216.037581761179</v>
+        <v>12016.03758176118</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>1293.914379848602</v>
+        <v>12093.9143798486</v>
       </c>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>1236.691412988906</v>
+        <v>12036.6914129889</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2062,7 +2062,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>1250.899975640395</v>
+        <v>12050.8999756404</v>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2089,7 +2089,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>1192.258245275334</v>
+        <v>11992.25824527533</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -2111,7 +2111,7 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
-        <v>1338.347547562174</v>
+        <v>12138.34754756218</v>
       </c>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>1189.929258765011</v>
+        <v>11989.92925876501</v>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
@@ -2148,7 +2148,7 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>1355.285662448372</v>
+        <v>12155.28566244837</v>
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
@@ -2176,7 +2176,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
-        <v>1175.137372378302</v>
+        <v>11975.1373723783</v>
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
@@ -2187,7 +2187,7 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="n">
-        <v>1353.139433948883</v>
+        <v>12153.13943394889</v>
       </c>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
@@ -2222,10 +2222,10 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>1295.151773901707</v>
+        <v>12095.15177390171</v>
       </c>
       <c r="Z43" t="n">
-        <v>1413.273322495548</v>
+        <v>12213.27332249555</v>
       </c>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -2260,10 +2260,10 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="n">
-        <v>1290.494958951255</v>
+        <v>12090.49495895125</v>
       </c>
       <c r="Z44" t="n">
-        <v>1417.930137446001</v>
+        <v>12217.930137446</v>
       </c>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
@@ -2285,7 +2285,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1207.749303762839</v>
+        <v>12007.74930376284</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -2296,10 +2296,10 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>1207.749303762839</v>
+        <v>12007.74930376284</v>
       </c>
       <c r="V45" t="n">
-        <v>1055.815184015062</v>
+        <v>11855.81518401506</v>
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
@@ -2309,7 +2309,7 @@
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
-        <v>1192.250696237161</v>
+        <v>11992.25069623716</v>
       </c>
     </row>
     <row r="46">
@@ -2322,20 +2322,20 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>1185.591545693386</v>
+        <v>11985.59154569339</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>1164.737585233993</v>
+        <v>11964.73758523399</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>1200.595868752664</v>
+        <v>12000.59586875266</v>
       </c>
       <c r="N46" t="n">
-        <v>1199.351689972266</v>
+        <v>11999.35168997227</v>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>1174.118492387079</v>
+        <v>11974.11849238708</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
@@ -2374,11 +2374,11 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>1253.061284915216</v>
+        <v>12053.06128491522</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="n">
-        <v>1172.97606310348</v>
+        <v>11972.97606310348</v>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
@@ -2389,7 +2389,7 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
-        <v>1420.091446720822</v>
+        <v>12220.09144672082</v>
       </c>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
@@ -2401,7 +2401,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1160.762874054691</v>
+        <v>11960.76287405469</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
@@ -2410,7 +2410,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>1231.76378719084</v>
+        <v>12031.76378719084</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2430,11 +2430,11 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
-        <v>1149.224453328448</v>
+        <v>11949.22445332845</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="n">
-        <v>1201.646276430688</v>
+        <v>12001.64627643069</v>
       </c>
       <c r="AD48" t="inlineStr"/>
     </row>
@@ -2453,7 +2453,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1153.562214970989</v>
+        <v>11953.56221497099</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2461,18 +2461,18 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>1365.958529512606</v>
+        <v>12165.95852951261</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>1153.562214970989</v>
+        <v>11953.56221497099</v>
       </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="n">
-        <v>1344.682047743105</v>
+        <v>12144.6820477431</v>
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
@@ -2485,7 +2485,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1182.831906767014</v>
+        <v>11982.83190676701</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
@@ -2507,19 +2507,19 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
-        <v>1033.746151302738</v>
+        <v>11833.74615130274</v>
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
-        <v>1171.293486040772</v>
+        <v>11971.29348604077</v>
       </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="n">
-        <v>1170.181663524838</v>
+        <v>11970.18166352484</v>
       </c>
     </row>
     <row r="51">
@@ -2532,18 +2532,18 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>1195.165169978079</v>
+        <v>11995.16516997808</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1143.988590686295</v>
+        <v>11943.98859068629</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>1208.925314256959</v>
+        <v>12008.92531425696</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -2552,7 +2552,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>1143.988590686295</v>
+        <v>11943.98859068629</v>
       </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
@@ -2569,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1206.612604217344</v>
+        <v>12006.61260421734</v>
       </c>
       <c r="C52" t="n">
-        <v>1150.337794936749</v>
+        <v>11950.33779493675</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="n">
-        <v>1149.19536565315</v>
+        <v>11949.19536565315</v>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
@@ -2600,7 +2600,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
-        <v>1195.074183491102</v>
+        <v>11995.0741834911</v>
       </c>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
@@ -2618,7 +2618,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>1215.214977331512</v>
+        <v>12015.21497733151</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2626,7 +2626,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="n">
-        <v>1269.610094774544</v>
+        <v>12069.61009477455</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -2639,12 +2639,12 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
-        <v>1436.64025658015</v>
+        <v>12236.64025658015</v>
       </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="n">
-        <v>1185.09746657136</v>
+        <v>11985.09746657136</v>
       </c>
       <c r="AD53" t="inlineStr"/>
     </row>
@@ -2662,18 +2662,18 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>1151.428645285966</v>
+        <v>11951.42864528597</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>1187.286928804637</v>
+        <v>11987.28692880464</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>1379.267469460633</v>
+        <v>12179.26746946063</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -2682,7 +2682,7 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="n">
-        <v>1357.990987691132</v>
+        <v>12157.99098769113</v>
       </c>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
@@ -2700,18 +2700,18 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>1147.047326873113</v>
+        <v>11947.04732687311</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>1263.332820436478</v>
+        <v>12063.33282043648</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>1160.807471151994</v>
+        <v>11960.80747115199</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="n">
-        <v>1233.215309676325</v>
+        <v>12033.21530967633</v>
       </c>
       <c r="AD55" t="inlineStr"/>
     </row>
@@ -2737,7 +2737,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1156.648916961702</v>
+        <v>11956.6489169617</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
@@ -2748,11 +2748,11 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>1201.392332541608</v>
+        <v>12001.39233254161</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>1237.250616060279</v>
+        <v>12037.25061606028</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
-        <v>1145.11049623546</v>
+        <v>11945.11049623546</v>
       </c>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
@@ -2786,15 +2786,15 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>1225.527042603504</v>
+        <v>12025.5270426035</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>1239.198110374582</v>
+        <v>12039.19811037458</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>1275.056393893253</v>
+        <v>12075.05639389325</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -2812,7 +2812,7 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="n">
-        <v>1195.409531843351</v>
+        <v>11995.40953184335</v>
       </c>
       <c r="AD57" t="inlineStr"/>
     </row>
@@ -2834,12 +2834,12 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>1294.577229751315</v>
+        <v>12094.57722975132</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>1354.300334483862</v>
+        <v>12154.30033448386</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -2848,10 +2848,10 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="n">
-        <v>1333.023852714362</v>
+        <v>12133.02385271436</v>
       </c>
       <c r="Z58" t="n">
-        <v>1461.607391556921</v>
+        <v>12261.60739155692</v>
       </c>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
@@ -2872,18 +2872,18 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>1232.586341815983</v>
+        <v>12032.58634181598</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>1268.444625334654</v>
+        <v>12068.44462533465</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>1360.912103042461</v>
+        <v>12160.91210304246</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -2892,7 +2892,7 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="n">
-        <v>1339.635621272961</v>
+        <v>12139.63562127296</v>
       </c>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
@@ -2918,12 +2918,12 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>1256.84216061004</v>
+        <v>12056.84216061004</v>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>1398.647172183736</v>
+        <v>12198.64717218374</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -2932,10 +2932,10 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="n">
-        <v>1377.370690414235</v>
+        <v>12177.37069041423</v>
       </c>
       <c r="Z60" t="n">
-        <v>1423.872322415646</v>
+        <v>12223.87232241565</v>
       </c>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>1271.813139769939</v>
+        <v>12071.81313976994</v>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>1383.676193023838</v>
+        <v>12183.67619302384</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -2974,10 +2974,10 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="n">
-        <v>1362.399711254337</v>
+        <v>12162.39971125434</v>
       </c>
       <c r="Z61" t="n">
-        <v>1438.843301575545</v>
+        <v>12238.84330157555</v>
       </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
@@ -2990,13 +2990,13 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1114.132525413403</v>
+        <v>11914.1325254134</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>1183.25259639646</v>
+        <v>11983.25259639646</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3033,7 +3033,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>1186.140249136186</v>
+        <v>11986.14024913619</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3057,7 +3057,7 @@
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="n">
-        <v>1184.041414388651</v>
+        <v>11984.04141438865</v>
       </c>
     </row>
     <row r="64">
@@ -3082,12 +3082,12 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>1201.699690056111</v>
+        <v>12001.69969005611</v>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="n">
-        <v>1032.046461246628</v>
+        <v>11832.04646124663</v>
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
@@ -3103,7 +3103,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1184.940664217409</v>
+        <v>11984.94066421741</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
@@ -3112,7 +3112,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>1197.235295347797</v>
+        <v>11997.2352953478</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3152,7 +3152,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>1252.179825751289</v>
+        <v>12052.17982575129</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3164,7 +3164,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="n">
-        <v>1216.264799583365</v>
+        <v>12016.26479958336</v>
       </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>1182.554040020469</v>
+        <v>11982.55404002047</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -3199,7 +3199,7 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
-        <v>1250.032301795514</v>
+        <v>12050.03230179551</v>
       </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -3229,7 +3229,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>1150.965413526493</v>
+        <v>11950.96541352649</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="n">
-        <v>1205.251589468852</v>
+        <v>12005.25158946885</v>
       </c>
       <c r="AD68" t="inlineStr"/>
     </row>
@@ -3270,7 +3270,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="n">
-        <v>1224.362678207375</v>
+        <v>12024.36267820738</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
@@ -3283,7 +3283,7 @@
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="n">
-        <v>1124.832687445775</v>
+        <v>11924.83268744577</v>
       </c>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
@@ -3298,7 +3298,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>1222.941540698369</v>
+        <v>12022.94154069837</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3319,7 +3319,7 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="n">
-        <v>1399.154357273635</v>
+        <v>12199.15435727364</v>
       </c>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
@@ -3354,14 +3354,14 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="n">
-        <v>1375.360875950002</v>
+        <v>12175.36087595</v>
       </c>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="n">
-        <v>1171.080249692986</v>
+        <v>11971.08024969299</v>
       </c>
     </row>
     <row r="72">
@@ -3385,10 +3385,10 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>1396.417054586546</v>
+        <v>12196.41705458655</v>
       </c>
       <c r="S72" t="n">
-        <v>1188.958828493403</v>
+        <v>11988.9588284934</v>
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -3414,7 +3414,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>1223.000073295358</v>
+        <v>12023.00007329536</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="n">
-        <v>1006.281683299067</v>
+        <v>11806.28168329907</v>
       </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
@@ -3451,12 +3451,12 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1113.916530489799</v>
+        <v>11913.9165304898</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>1254.777758666856</v>
+        <v>12054.77775866686</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>1162.800017132605</v>
+        <v>11962.8000171326</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
@@ -3511,7 +3511,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="n">
-        <v>1076.165195726573</v>
+        <v>11876.16519572657</v>
       </c>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
@@ -3533,7 +3533,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>1140.220115271984</v>
+        <v>11940.22011527198</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
@@ -3551,7 +3551,7 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="n">
-        <v>1181.825547947496</v>
+        <v>11981.8255479475</v>
       </c>
     </row>
     <row r="77">
@@ -3566,7 +3566,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>1245.904607906208</v>
+        <v>12045.90460790621</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3585,7 +3585,7 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="n">
-        <v>1376.249822662785</v>
+        <v>12176.24982266278</v>
       </c>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -3606,11 +3606,11 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>1278.615691451759</v>
+        <v>12078.61569145176</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>1228.341892966386</v>
+        <v>12028.34189296639</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>1212.431609331616</v>
+        <v>12012.43160933161</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>1139.327236294392</v>
+        <v>11939.32723629439</v>
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
@@ -3691,12 +3691,12 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="n">
-        <v>1259.926376239385</v>
+        <v>12059.92637623939</v>
       </c>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="n">
-        <v>1206.370725139493</v>
+        <v>12006.37072513949</v>
       </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
@@ -3711,14 +3711,14 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>1211.310425983646</v>
+        <v>12011.31042598365</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>1196.571778932131</v>
+        <v>11996.57177893213</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3772,13 +3772,13 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="n">
-        <v>1388.825087094183</v>
+        <v>12188.82508709418</v>
       </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="n">
-        <v>1191.787378324671</v>
+        <v>11991.78737832467</v>
       </c>
       <c r="AD82" t="inlineStr"/>
     </row>
@@ -3802,10 +3802,10 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="n">
-        <v>1211.017180471949</v>
+        <v>12011.01718047195</v>
       </c>
       <c r="R83" t="n">
-        <v>1409.762552321972</v>
+        <v>12209.76255232197</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>1224.053515176092</v>
+        <v>12024.05351517609</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="n">
-        <v>1194.748819295017</v>
+        <v>11994.74881929502</v>
       </c>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>1183.651911226616</v>
+        <v>11983.65191122662</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3893,7 +3893,7 @@
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="n">
-        <v>1194.745415653011</v>
+        <v>11994.74541565301</v>
       </c>
     </row>
     <row r="86">
@@ -3908,7 +3908,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>1230.531071413275</v>
+        <v>12030.53107141328</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3930,7 +3930,7 @@
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="n">
-        <v>1207.160914817604</v>
+        <v>12007.1609148176</v>
       </c>
       <c r="AD86" t="inlineStr"/>
     </row>
@@ -3948,7 +3948,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>1286.403492308235</v>
+        <v>12086.40349230823</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -3956,7 +3956,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="n">
-        <v>1203.229379615473</v>
+        <v>12003.22937961547</v>
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>1210.225573674294</v>
+        <v>12010.22557367429</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
@@ -4007,7 +4007,7 @@
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="n">
-        <v>1208.57335715481</v>
+        <v>12008.57335715481</v>
       </c>
     </row>
     <row r="89">
@@ -4024,7 +4024,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>1233.467836182129</v>
+        <v>12033.46783618213</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -4044,7 +4044,7 @@
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="n">
-        <v>1260.09657094371</v>
+        <v>12060.09657094371</v>
       </c>
       <c r="AD89" t="inlineStr"/>
     </row>
@@ -4053,7 +4053,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1202.341454334959</v>
+        <v>12002.34145433496</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="n">
-        <v>1268.895347888073</v>
+        <v>12068.89534788807</v>
       </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
@@ -4107,7 +4107,7 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
-        <v>1456.456548535401</v>
+        <v>12256.4565485354</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -4116,7 +4116,7 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="n">
-        <v>1342.131090880754</v>
+        <v>12142.13109088075</v>
       </c>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
@@ -4129,7 +4129,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1217.941401620645</v>
+        <v>12017.94140162065</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
@@ -4158,7 +4158,7 @@
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="n">
-        <v>1244.496623658024</v>
+        <v>12044.49662365802</v>
       </c>
       <c r="AD92" t="inlineStr"/>
     </row>
@@ -4190,14 +4190,14 @@
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="n">
-        <v>1345.836317641776</v>
+        <v>12145.83631764178</v>
       </c>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="n">
-        <v>1204.868130393788</v>
+        <v>12004.86813039379</v>
       </c>
     </row>
     <row r="94">
@@ -4205,7 +4205,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1285.887404179793</v>
+        <v>12085.88740417979</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
@@ -4230,7 +4230,7 @@
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="n">
-        <v>1277.890315082629</v>
+        <v>12077.89031508263</v>
       </c>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -4259,11 +4259,11 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>1468.857797630952</v>
+        <v>12268.85779763096</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="n">
-        <v>1256.494098792522</v>
+        <v>12056.49409879252</v>
       </c>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
@@ -4281,7 +4281,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1308.054150695629</v>
+        <v>12108.05415069563</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
@@ -4301,7 +4301,7 @@
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="n">
-        <v>1234.327352276686</v>
+        <v>12034.32735227669</v>
       </c>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
@@ -4319,7 +4319,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>1330.021195204519</v>
+        <v>12130.02119520452</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -4337,7 +4337,7 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="n">
-        <v>1446.890753122061</v>
+        <v>12246.89075312206</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -4357,7 +4357,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1385.287080895593</v>
+        <v>12185.28708089559</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
@@ -4375,7 +4375,7 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>1391.624867430988</v>
+        <v>12191.62486743099</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -585,19 +585,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12036</v>
+        <v>1236</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>11964</v>
+        <v>1164</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>11964</v>
+        <v>1164</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -616,7 +616,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>12036</v>
+        <v>1236</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -634,16 +634,16 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>12036</v>
+        <v>1236</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>11964</v>
+        <v>1164</v>
       </c>
       <c r="N3" t="n">
-        <v>12036</v>
+        <v>1236</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -660,7 +660,7 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
-        <v>11964</v>
+        <v>1164</v>
       </c>
       <c r="AD3" t="inlineStr"/>
     </row>
@@ -670,10 +670,10 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>11964</v>
+        <v>1164</v>
       </c>
       <c r="D4" t="n">
-        <v>11964</v>
+        <v>1164</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -686,7 +686,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>12036</v>
+        <v>1236</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -699,7 +699,7 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>12036</v>
+        <v>1236</v>
       </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -726,21 +726,21 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>11928</v>
+        <v>1128</v>
       </c>
       <c r="R5" t="n">
-        <v>12072</v>
+        <v>1272</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>11928</v>
+        <v>1128</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>12072</v>
+        <v>1272</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -756,19 +756,19 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>11940</v>
+        <v>1140</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>11940</v>
+        <v>1140</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>11988</v>
+        <v>1188</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -786,7 +786,7 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>11988</v>
+        <v>1188</v>
       </c>
       <c r="AD6" t="inlineStr"/>
     </row>
@@ -796,10 +796,10 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>11985.75493117657</v>
+        <v>1185.754931176571</v>
       </c>
       <c r="D7" t="n">
-        <v>11985.75493117657</v>
+        <v>1185.754931176571</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -814,14 +814,14 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>11906.24506882343</v>
+        <v>1106.245068823429</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>11906.24506882343</v>
+        <v>1106.245068823429</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12024</v>
+        <v>1224</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -846,14 +846,14 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>12048</v>
+        <v>1248</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>12048</v>
+        <v>1248</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -868,7 +868,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>12024</v>
+        <v>1224</v>
       </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -892,12 +892,12 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>12026.24506882343</v>
+        <v>1226.245068823429</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>12081.75493117657</v>
+        <v>1281.754931176571</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
@@ -906,10 +906,10 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>12081.75493117657</v>
+        <v>1281.754931176571</v>
       </c>
       <c r="Z9" t="n">
-        <v>12026.24506882343</v>
+        <v>1226.245068823429</v>
       </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
@@ -922,10 +922,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>11976.2798016619</v>
+        <v>1176.279801661901</v>
       </c>
       <c r="D10" t="n">
-        <v>11976.2798016619</v>
+        <v>1176.279801661901</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -938,7 +938,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>12035.7201983381</v>
+        <v>1235.720198338099</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -951,7 +951,7 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>12035.7201983381</v>
+        <v>1235.720198338099</v>
       </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
@@ -963,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12009.75493117657</v>
+        <v>1209.754931176571</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -976,7 +976,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>12002.24506882343</v>
+        <v>1202.245068823429</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -992,11 +992,11 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>12009.75493117657</v>
+        <v>1209.754931176571</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>12002.24506882343</v>
+        <v>1202.245068823429</v>
       </c>
       <c r="AD11" t="inlineStr"/>
     </row>
@@ -1016,11 +1016,11 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>11992.33277069057</v>
+        <v>1192.332770690573</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>12045.63249647096</v>
+        <v>1245.632496470955</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>12045.63249647096</v>
+        <v>1245.632496470955</v>
       </c>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>11992.33277069057</v>
+        <v>1192.332770690573</v>
       </c>
       <c r="AD12" t="inlineStr"/>
     </row>
@@ -1054,20 +1054,20 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>12062.10514200477</v>
+        <v>1262.105142004774</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>12062.10514200477</v>
+        <v>1262.105142004774</v>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>12067.6497891718</v>
+        <v>1267.649789171797</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>12067.6497891718</v>
+        <v>1267.649789171797</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
@@ -1102,12 +1102,12 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>12011.00584007433</v>
+        <v>1211.005840074326</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>12102.27644556843</v>
+        <v>1302.276445568426</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1116,10 +1116,10 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="n">
-        <v>12102.27644556843</v>
+        <v>1302.276445568426</v>
       </c>
       <c r="Z14" t="n">
-        <v>12011.00584007433</v>
+        <v>1211.005840074326</v>
       </c>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
@@ -1138,20 +1138,20 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>12052.61014685244</v>
+        <v>1252.610146852445</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>12052.61014685244</v>
+        <v>1252.610146852445</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>12111.77144072076</v>
+        <v>1311.771440720756</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -1160,7 +1160,7 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>12111.77144072076</v>
+        <v>1311.771440720756</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>12067.52805276011</v>
+        <v>1267.528052760113</v>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>11891.32716291576</v>
+        <v>1091.32716291576</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
@@ -1220,7 +1220,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>12012.60852978343</v>
+        <v>1212.608529783427</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>11997.14640139314</v>
+        <v>1197.146401393145</v>
       </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
@@ -1249,7 +1249,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>11955.31490704694</v>
+        <v>1155.314907046943</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1266,7 +1266,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="n">
-        <v>11960.68509295306</v>
+        <v>1160.685092953057</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>12012.68655922158</v>
+        <v>1212.686559221579</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1302,7 +1302,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>11998.31928085275</v>
+        <v>1198.319280852747</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1332,13 +1332,13 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>12036.85326358103</v>
+        <v>1236.853263581029</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>12008.08965396199</v>
+        <v>1208.089653961989</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1385,10 +1385,10 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>11994.95094909578</v>
+        <v>1194.950949095781</v>
       </c>
       <c r="Y21" t="n">
-        <v>12116.82049162498</v>
+        <v>1316.820491624975</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
@@ -1409,7 +1409,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>11920.42399469515</v>
+        <v>1120.423994695146</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1427,7 +1427,7 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>12030.58184537918</v>
+        <v>1230.581845379179</v>
       </c>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
@@ -1439,7 +1439,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>11993.92334937152</v>
+        <v>1193.923349371525</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>11958.53795906856</v>
+        <v>1158.537959068563</v>
       </c>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>12022.45028145073</v>
+        <v>1222.450281450726</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1492,7 +1492,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>12012.72226298305</v>
+        <v>1212.722262983049</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -1523,7 +1523,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>11913.06677693951</v>
+        <v>1113.066776939508</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1539,7 +1539,7 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
-        <v>12002.30816685142</v>
+        <v>1202.308166851419</v>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -1565,11 +1565,11 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>12027.32023400107</v>
+        <v>1227.320234001075</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
-        <v>12040.20781875904</v>
+        <v>1240.207818759038</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
@@ -1600,7 +1600,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>11997.37156075412</v>
+        <v>1197.371560754119</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1608,7 +1608,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>11975.92206198236</v>
+        <v>1175.922061982365</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -1633,7 +1633,7 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>12024.39979086517</v>
+        <v>1224.399790865172</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1642,7 +1642,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>11996.3764223184</v>
+        <v>1196.376422318395</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -1690,10 +1690,10 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>12123.4506346713</v>
+        <v>1323.450634671302</v>
       </c>
       <c r="Z29" t="n">
-        <v>12023.95170233286</v>
+        <v>1223.951702332852</v>
       </c>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
@@ -1717,7 +1717,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>12013.76014427888</v>
+        <v>1213.76014427888</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -1729,7 +1729,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>12015.86825657361</v>
+        <v>1215.868256573614</v>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -1752,13 +1752,13 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>11950.32913092738</v>
+        <v>1150.329130927378</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>12059.76469280979</v>
+        <v>1259.76469280979</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>11970.0763797948</v>
+        <v>1170.076379794805</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1794,7 +1794,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>12020.22339189512</v>
+        <v>1220.223391895116</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1839,13 +1839,13 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>11863.5644877779</v>
+        <v>1063.564487777901</v>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
-        <v>12051.71437747071</v>
+        <v>1251.714377470711</v>
       </c>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>12093.02761025481</v>
+        <v>1293.027610254809</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -1881,7 +1881,7 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="n">
-        <v>11982.60533912859</v>
+        <v>1182.605339128595</v>
       </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
@@ -1906,7 +1906,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>11986.18741444605</v>
+        <v>1186.187414446049</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -1921,7 +1921,7 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>12085.75035491978</v>
+        <v>1285.750354919778</v>
       </c>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -1947,10 +1947,10 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>12024.20160669</v>
+        <v>1224.201606690003</v>
       </c>
       <c r="Q36" t="n">
-        <v>11991.9282740514</v>
+        <v>1191.9282740514</v>
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -1975,7 +1975,7 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>11994.56377837449</v>
+        <v>1194.563778374491</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1996,7 +1996,7 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="n">
-        <v>12153.28664716198</v>
+        <v>1353.286647161983</v>
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
@@ -2023,7 +2023,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>12016.03758176118</v>
+        <v>1216.037581761179</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>12093.9143798486</v>
+        <v>1293.914379848602</v>
       </c>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>12036.6914129889</v>
+        <v>1236.691412988906</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2062,7 +2062,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="n">
-        <v>12050.8999756404</v>
+        <v>1250.899975640395</v>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2089,7 +2089,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>11992.25824527533</v>
+        <v>1192.258245275334</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -2111,7 +2111,7 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
-        <v>12138.34754756218</v>
+        <v>1338.347547562174</v>
       </c>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
@@ -2138,7 +2138,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="n">
-        <v>11989.92925876501</v>
+        <v>1189.929258765011</v>
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
@@ -2148,7 +2148,7 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>12155.28566244837</v>
+        <v>1355.285662448372</v>
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
@@ -2176,7 +2176,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="n">
-        <v>11975.1373723783</v>
+        <v>1175.137372378302</v>
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
@@ -2187,7 +2187,7 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="n">
-        <v>12153.13943394889</v>
+        <v>1353.139433948883</v>
       </c>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
@@ -2222,10 +2222,10 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>12095.15177390171</v>
+        <v>1295.151773901707</v>
       </c>
       <c r="Z43" t="n">
-        <v>12213.27332249555</v>
+        <v>1413.273322495548</v>
       </c>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -2260,10 +2260,10 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="n">
-        <v>12090.49495895125</v>
+        <v>1290.494958951255</v>
       </c>
       <c r="Z44" t="n">
-        <v>12217.930137446</v>
+        <v>1417.930137446001</v>
       </c>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
@@ -2285,7 +2285,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>12007.74930376284</v>
+        <v>1207.749303762839</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -2296,10 +2296,10 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>12007.74930376284</v>
+        <v>1207.749303762839</v>
       </c>
       <c r="V45" t="n">
-        <v>11855.81518401506</v>
+        <v>1055.815184015062</v>
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
@@ -2309,7 +2309,7 @@
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
-        <v>11992.25069623716</v>
+        <v>1192.250696237161</v>
       </c>
     </row>
     <row r="46">
@@ -2322,20 +2322,20 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>11985.59154569339</v>
+        <v>1185.591545693386</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>11964.73758523399</v>
+        <v>1164.737585233993</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>12000.59586875266</v>
+        <v>1200.595868752664</v>
       </c>
       <c r="N46" t="n">
-        <v>11999.35168997227</v>
+        <v>1199.351689972266</v>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>11974.11849238708</v>
+        <v>1174.118492387079</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
@@ -2374,11 +2374,11 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>12053.06128491522</v>
+        <v>1253.061284915216</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="n">
-        <v>11972.97606310348</v>
+        <v>1172.97606310348</v>
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
@@ -2389,7 +2389,7 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
-        <v>12220.09144672082</v>
+        <v>1420.091446720822</v>
       </c>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
@@ -2401,7 +2401,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>11960.76287405469</v>
+        <v>1160.762874054691</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
@@ -2410,7 +2410,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>12031.76378719084</v>
+        <v>1231.76378719084</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2430,11 +2430,11 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
-        <v>11949.22445332845</v>
+        <v>1149.224453328448</v>
       </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="n">
-        <v>12001.64627643069</v>
+        <v>1201.646276430688</v>
       </c>
       <c r="AD48" t="inlineStr"/>
     </row>
@@ -2453,7 +2453,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>11953.56221497099</v>
+        <v>1153.562214970989</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -2461,18 +2461,18 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>12165.95852951261</v>
+        <v>1365.958529512606</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>11953.56221497099</v>
+        <v>1153.562214970989</v>
       </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="n">
-        <v>12144.6820477431</v>
+        <v>1344.682047743105</v>
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
@@ -2485,7 +2485,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>11982.83190676701</v>
+        <v>1182.831906767014</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
@@ -2507,19 +2507,19 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
-        <v>11833.74615130274</v>
+        <v>1033.746151302738</v>
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="n">
-        <v>11971.29348604077</v>
+        <v>1171.293486040772</v>
       </c>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="n">
-        <v>11970.18166352484</v>
+        <v>1170.181663524838</v>
       </c>
     </row>
     <row r="51">
@@ -2532,18 +2532,18 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>11995.16516997808</v>
+        <v>1195.165169978079</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>11943.98859068629</v>
+        <v>1143.988590686295</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>12008.92531425696</v>
+        <v>1208.925314256959</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
@@ -2552,7 +2552,7 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
-        <v>11943.98859068629</v>
+        <v>1143.988590686295</v>
       </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
@@ -2569,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>12006.61260421734</v>
+        <v>1206.612604217344</v>
       </c>
       <c r="C52" t="n">
-        <v>11950.33779493675</v>
+        <v>1150.337794936749</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="n">
-        <v>11949.19536565315</v>
+        <v>1149.19536565315</v>
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
@@ -2600,7 +2600,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="n">
-        <v>11995.0741834911</v>
+        <v>1195.074183491102</v>
       </c>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
@@ -2618,7 +2618,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>12015.21497733151</v>
+        <v>1215.214977331512</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2626,7 +2626,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="n">
-        <v>12069.61009477455</v>
+        <v>1269.610094774544</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -2639,12 +2639,12 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
-        <v>12236.64025658015</v>
+        <v>1436.64025658015</v>
       </c>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="n">
-        <v>11985.09746657136</v>
+        <v>1185.09746657136</v>
       </c>
       <c r="AD53" t="inlineStr"/>
     </row>
@@ -2662,18 +2662,18 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>11951.42864528597</v>
+        <v>1151.428645285966</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>11987.28692880464</v>
+        <v>1187.286928804637</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>12179.26746946063</v>
+        <v>1379.267469460633</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
@@ -2682,7 +2682,7 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="n">
-        <v>12157.99098769113</v>
+        <v>1357.990987691132</v>
       </c>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
@@ -2700,18 +2700,18 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>11947.04732687311</v>
+        <v>1147.047326873113</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>12063.33282043648</v>
+        <v>1263.332820436478</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>11960.80747115199</v>
+        <v>1160.807471151994</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="n">
-        <v>12033.21530967633</v>
+        <v>1233.215309676325</v>
       </c>
       <c r="AD55" t="inlineStr"/>
     </row>
@@ -2737,7 +2737,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>11956.6489169617</v>
+        <v>1156.648916961702</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
@@ -2748,11 +2748,11 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>12001.39233254161</v>
+        <v>1201.392332541608</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>12037.25061606028</v>
+        <v>1237.250616060279</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
-        <v>11945.11049623546</v>
+        <v>1145.11049623546</v>
       </c>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
@@ -2786,15 +2786,15 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>12025.5270426035</v>
+        <v>1225.527042603504</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>12039.19811037458</v>
+        <v>1239.198110374582</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>12075.05639389325</v>
+        <v>1275.056393893253</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -2812,7 +2812,7 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="n">
-        <v>11995.40953184335</v>
+        <v>1195.409531843351</v>
       </c>
       <c r="AD57" t="inlineStr"/>
     </row>
@@ -2834,12 +2834,12 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>12094.57722975132</v>
+        <v>1294.577229751315</v>
       </c>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>12154.30033448386</v>
+        <v>1354.300334483862</v>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
@@ -2848,10 +2848,10 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="n">
-        <v>12133.02385271436</v>
+        <v>1333.023852714362</v>
       </c>
       <c r="Z58" t="n">
-        <v>12261.60739155692</v>
+        <v>1461.607391556921</v>
       </c>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
@@ -2872,18 +2872,18 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>12032.58634181598</v>
+        <v>1232.586341815983</v>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>12068.44462533465</v>
+        <v>1268.444625334654</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>12160.91210304246</v>
+        <v>1360.912103042461</v>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -2892,7 +2892,7 @@
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="n">
-        <v>12139.63562127296</v>
+        <v>1339.635621272961</v>
       </c>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
@@ -2918,12 +2918,12 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>12056.84216061004</v>
+        <v>1256.84216061004</v>
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>12198.64717218374</v>
+        <v>1398.647172183736</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -2932,10 +2932,10 @@
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="n">
-        <v>12177.37069041423</v>
+        <v>1377.370690414235</v>
       </c>
       <c r="Z60" t="n">
-        <v>12223.87232241565</v>
+        <v>1423.872322415646</v>
       </c>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>12071.81313976994</v>
+        <v>1271.813139769939</v>
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>12183.67619302384</v>
+        <v>1383.676193023838</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -2974,10 +2974,10 @@
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="n">
-        <v>12162.39971125434</v>
+        <v>1362.399711254337</v>
       </c>
       <c r="Z61" t="n">
-        <v>12238.84330157555</v>
+        <v>1438.843301575545</v>
       </c>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
@@ -2990,13 +2990,13 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>11914.1325254134</v>
+        <v>1114.132525413403</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="n">
-        <v>11983.25259639646</v>
+        <v>1183.25259639646</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3033,7 +3033,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>11986.14024913619</v>
+        <v>1186.140249136186</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3057,7 +3057,7 @@
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="n">
-        <v>11984.04141438865</v>
+        <v>1184.041414388651</v>
       </c>
     </row>
     <row r="64">
@@ -3082,12 +3082,12 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>12001.69969005611</v>
+        <v>1201.699690056111</v>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="n">
-        <v>11832.04646124663</v>
+        <v>1032.046461246628</v>
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
@@ -3103,7 +3103,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>11984.94066421741</v>
+        <v>1184.940664217409</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
@@ -3112,7 +3112,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>11997.2352953478</v>
+        <v>1197.235295347797</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3152,7 +3152,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>12052.17982575129</v>
+        <v>1252.179825751289</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3164,7 +3164,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="n">
-        <v>12016.26479958336</v>
+        <v>1216.264799583365</v>
       </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>11982.55404002047</v>
+        <v>1182.554040020469</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -3199,7 +3199,7 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="n">
-        <v>12050.03230179551</v>
+        <v>1250.032301795514</v>
       </c>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -3229,7 +3229,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="n">
-        <v>11950.96541352649</v>
+        <v>1150.965413526493</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="n">
-        <v>12005.25158946885</v>
+        <v>1205.251589468852</v>
       </c>
       <c r="AD68" t="inlineStr"/>
     </row>
@@ -3270,7 +3270,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="n">
-        <v>12024.36267820738</v>
+        <v>1224.362678207375</v>
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
@@ -3283,7 +3283,7 @@
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="n">
-        <v>11924.83268744577</v>
+        <v>1124.832687445775</v>
       </c>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
@@ -3298,7 +3298,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>12022.94154069837</v>
+        <v>1222.941540698369</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3319,7 +3319,7 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="n">
-        <v>12199.15435727364</v>
+        <v>1399.154357273635</v>
       </c>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
@@ -3354,14 +3354,14 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="n">
-        <v>12175.36087595</v>
+        <v>1375.360875950002</v>
       </c>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="n">
-        <v>11971.08024969299</v>
+        <v>1171.080249692986</v>
       </c>
     </row>
     <row r="72">
@@ -3385,10 +3385,10 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>12196.41705458655</v>
+        <v>1396.417054586546</v>
       </c>
       <c r="S72" t="n">
-        <v>11988.9588284934</v>
+        <v>1188.958828493403</v>
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -3414,7 +3414,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>12023.00007329536</v>
+        <v>1223.000073295358</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3429,7 +3429,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="n">
-        <v>11806.28168329907</v>
+        <v>1006.281683299067</v>
       </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
@@ -3451,12 +3451,12 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>11913.9165304898</v>
+        <v>1113.916530489799</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>12054.77775866686</v>
+        <v>1254.777758666856</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>11962.8000171326</v>
+        <v>1162.800017132605</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
@@ -3511,7 +3511,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="n">
-        <v>11876.16519572657</v>
+        <v>1076.165195726573</v>
       </c>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
@@ -3533,7 +3533,7 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="n">
-        <v>11940.22011527198</v>
+        <v>1140.220115271984</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
@@ -3551,7 +3551,7 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="n">
-        <v>11981.8255479475</v>
+        <v>1181.825547947496</v>
       </c>
     </row>
     <row r="77">
@@ -3566,7 +3566,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>12045.90460790621</v>
+        <v>1245.904607906208</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3585,7 +3585,7 @@
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="n">
-        <v>12176.24982266278</v>
+        <v>1376.249822662785</v>
       </c>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -3606,11 +3606,11 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>12078.61569145176</v>
+        <v>1278.615691451759</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>12028.34189296639</v>
+        <v>1228.341892966386</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>12012.43160933161</v>
+        <v>1212.431609331616</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>11939.32723629439</v>
+        <v>1139.327236294392</v>
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
@@ -3691,12 +3691,12 @@
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="n">
-        <v>12059.92637623939</v>
+        <v>1259.926376239385</v>
       </c>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="n">
-        <v>12006.37072513949</v>
+        <v>1206.370725139493</v>
       </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
@@ -3711,14 +3711,14 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>12011.31042598365</v>
+        <v>1211.310425983646</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>11996.57177893213</v>
+        <v>1196.571778932131</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3772,13 +3772,13 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="n">
-        <v>12188.82508709418</v>
+        <v>1388.825087094183</v>
       </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="n">
-        <v>11991.78737832467</v>
+        <v>1191.787378324671</v>
       </c>
       <c r="AD82" t="inlineStr"/>
     </row>
@@ -3802,10 +3802,10 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="n">
-        <v>12011.01718047195</v>
+        <v>1211.017180471949</v>
       </c>
       <c r="R83" t="n">
-        <v>12209.76255232197</v>
+        <v>1409.762552321972</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>12024.05351517609</v>
+        <v>1224.053515176092</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="n">
-        <v>11994.74881929502</v>
+        <v>1194.748819295017</v>
       </c>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>11983.65191122662</v>
+        <v>1183.651911226616</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3893,7 +3893,7 @@
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="n">
-        <v>11994.74541565301</v>
+        <v>1194.745415653011</v>
       </c>
     </row>
     <row r="86">
@@ -3908,7 +3908,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>12030.53107141328</v>
+        <v>1230.531071413275</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3930,7 +3930,7 @@
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="n">
-        <v>12007.1609148176</v>
+        <v>1207.160914817604</v>
       </c>
       <c r="AD86" t="inlineStr"/>
     </row>
@@ -3948,7 +3948,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>12086.40349230823</v>
+        <v>1286.403492308235</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -3956,7 +3956,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="n">
-        <v>12003.22937961547</v>
+        <v>1203.229379615473</v>
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>12010.22557367429</v>
+        <v>1210.225573674294</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
@@ -4007,7 +4007,7 @@
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="n">
-        <v>12008.57335715481</v>
+        <v>1208.57335715481</v>
       </c>
     </row>
     <row r="89">
@@ -4024,7 +4024,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>12033.46783618213</v>
+        <v>1233.467836182129</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -4044,7 +4044,7 @@
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="n">
-        <v>12060.09657094371</v>
+        <v>1260.09657094371</v>
       </c>
       <c r="AD89" t="inlineStr"/>
     </row>
@@ -4053,7 +4053,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>12002.34145433496</v>
+        <v>1202.341454334959</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="n">
-        <v>12068.89534788807</v>
+        <v>1268.895347888073</v>
       </c>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
@@ -4107,7 +4107,7 @@
       <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
-        <v>12256.4565485354</v>
+        <v>1456.456548535401</v>
       </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
@@ -4116,7 +4116,7 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="n">
-        <v>12142.13109088075</v>
+        <v>1342.131090880754</v>
       </c>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
@@ -4129,7 +4129,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>12017.94140162065</v>
+        <v>1217.941401620645</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
@@ -4158,7 +4158,7 @@
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="n">
-        <v>12044.49662365802</v>
+        <v>1244.496623658024</v>
       </c>
       <c r="AD92" t="inlineStr"/>
     </row>
@@ -4190,14 +4190,14 @@
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="n">
-        <v>12145.83631764178</v>
+        <v>1345.836317641776</v>
       </c>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="n">
-        <v>12004.86813039379</v>
+        <v>1204.868130393788</v>
       </c>
     </row>
     <row r="94">
@@ -4205,7 +4205,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>12085.88740417979</v>
+        <v>1285.887404179793</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
@@ -4230,7 +4230,7 @@
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="n">
-        <v>12077.89031508263</v>
+        <v>1277.890315082629</v>
       </c>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -4259,11 +4259,11 @@
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>12268.85779763096</v>
+        <v>1468.857797630952</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="n">
-        <v>12056.49409879252</v>
+        <v>1256.494098792522</v>
       </c>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
@@ -4281,7 +4281,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>12108.05415069563</v>
+        <v>1308.054150695629</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
@@ -4301,7 +4301,7 @@
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="n">
-        <v>12034.32735227669</v>
+        <v>1234.327352276686</v>
       </c>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
@@ -4319,7 +4319,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>12130.02119520452</v>
+        <v>1330.021195204519</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
@@ -4337,7 +4337,7 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="n">
-        <v>12246.89075312206</v>
+        <v>1446.890753122061</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -4357,7 +4357,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>12185.28708089559</v>
+        <v>1385.287080895593</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
@@ -4375,7 +4375,7 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>12191.62486743099</v>
+        <v>1391.624867430988</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -436,171 +436,171 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Kristian Banlaoi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Kevin Cooper</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rohan Chowla</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rose Roché</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Aaron Carter</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Roman Ramirez</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Coby Lovelace</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Paul Bartenfeld</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Jason Jackson</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Jack Massingill</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Evan Sooklal</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Leah Baetcke</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Gabe Silverstein</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Reagan Fryatt</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Carla Betancourt</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Levin Lee</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cason Duszak</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Will Simpson</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Ann Hall</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Helen Dunn</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Noah Dale</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Yvonne Nguyen</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Anna Brown</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Brian Tafazoli</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Carla Betancourt</t>
+          <t>Sam Carswell-Tellis</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Cason Duszak</t>
+          <t>Nathan Snow</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Piper Parker</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Matthew Rusten</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Cassie Deering</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Coby Lovelace</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Evan Sooklal</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Gabe Silverstein</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Helen Dunn</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Jack Massingill</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Jason Jackson</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Kevin Cooper</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Kristian Banlaoi</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Leah Baetcke</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Levin Lee</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Matthew Rusten</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Nathan Snow</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Noah Dale</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Paul Bartenfeld</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Piper Parker</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Reagan Fryatt</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Rohan Chowla</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Roman Ramirez</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Rose Roché</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Sam Carswell-Tellis</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Will Simpson</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Yvonne Nguyen</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1236</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>1164</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>1236</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1236</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
         <v>1164</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -613,11 +613,11 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>1164</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="n">
-        <v>1236</v>
-      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
@@ -632,24 +632,26 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="H3" t="n">
         <v>1236</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1236</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1164</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1164</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1236</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>1164</v>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -659,9 +661,7 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>1164</v>
-      </c>
+      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -670,14 +670,14 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1164</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1164</v>
-      </c>
+        <v>1236</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1236</v>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -685,22 +685,22 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>1236</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>1164</v>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>1164</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
-        <v>1236</v>
-      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -712,36 +712,36 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1272</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1128</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1128</v>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>1128</v>
-      </c>
-      <c r="R5" t="n">
         <v>1272</v>
       </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>1128</v>
-      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="n">
-        <v>1272</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
@@ -755,39 +755,39 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1140</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1188</v>
+      </c>
+      <c r="L6" t="n">
         <v>1140</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1188</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>1188</v>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>1140</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>1188</v>
-      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -795,36 +795,36 @@
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>1185.754931176571</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1185.754931176571</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1106.245068823429</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1106.245068823429</v>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>1106.245068823429</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>1185.754931176571</v>
+      </c>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>1106.245068823429</v>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>1185.754931176571</v>
+      </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -836,25 +836,27 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>1224</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>1224</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1224</v>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
+      <c r="H8" t="n">
         <v>1248</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1248</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
-        <v>1248</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -867,9 +869,7 @@
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="n">
-        <v>1224</v>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
@@ -879,11 +879,17 @@
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>1226.245068823429</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1281.754931176571</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1226.245068823429</v>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -891,26 +897,20 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>1226.245068823429</v>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
         <v>1281.754931176571</v>
       </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="n">
-        <v>1281.754931176571</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1226.245068823429</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -922,14 +922,14 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1176.279801661901</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1176.279801661901</v>
-      </c>
+        <v>1235.720198338099</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1235.720198338099</v>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -937,22 +937,22 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>1235.720198338099</v>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>1176.279801661901</v>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>1176.279801661901</v>
+      </c>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
-        <v>1235.720198338099</v>
-      </c>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
@@ -962,28 +962,32 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>1209.754931176571</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1209.754931176571</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1209.754931176571</v>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1202.245068823429</v>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1202.245068823429</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>1202.245068823429</v>
+      </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -991,13 +995,9 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="n">
-        <v>1209.754931176571</v>
-      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="n">
-        <v>1202.245068823429</v>
-      </c>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1005,41 +1005,41 @@
         <v>11</v>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1245.632496470955</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>1245.632496470955</v>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1192.332770690573</v>
+      </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1192.332770690573</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>1245.632496470955</v>
-      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>1192.332770690573</v>
+      </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="n">
-        <v>1245.632496470955</v>
-      </c>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="n">
-        <v>1192.332770690573</v>
-      </c>
+      <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1048,36 +1048,36 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1267.649789171797</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
+      <c r="H13" t="n">
         <v>1262.105142004774</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1262.105142004774</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>1262.105142004774</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="n">
+      <c r="Q13" t="n">
         <v>1267.649789171797</v>
       </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="n">
-        <v>1267.649789171797</v>
-      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
@@ -1089,11 +1089,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>1211.005840074326</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1302.276445568426</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1211.005840074326</v>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1101,26 +1107,20 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>1211.005840074326</v>
-      </c>
+      <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
+      <c r="Q14" t="n">
         <v>1302.276445568426</v>
       </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>1302.276445568426</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1211.005840074326</v>
-      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
@@ -1132,36 +1132,36 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>1311.771440720756</v>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
+      <c r="H15" t="n">
         <v>1252.610146852445</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1252.610146852445</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>1252.610146852445</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
+      <c r="Q15" t="n">
         <v>1311.771440720756</v>
       </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>1311.771440720756</v>
-      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
@@ -1179,14 +1179,16 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1091.32716291576</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1267.528052760113</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>1267.528052760113</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1194,9 +1196,7 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="n">
-        <v>1091.32716291576</v>
-      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
@@ -1213,18 +1213,20 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>1197.146401393145</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1212.608529783427</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>1212.608529783427</v>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1237,9 +1239,7 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>1197.146401393145</v>
-      </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
@@ -1248,26 +1248,26 @@
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>1155.314907046943</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1155.314907046943</v>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1160.685092953057</v>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>1160.685092953057</v>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
@@ -1287,12 +1287,12 @@
         <v>18</v>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1198.319280852747</v>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>1212.686559221579</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1301,10 +1301,10 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>1198.319280852747</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>1212.686559221579</v>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1330,16 +1330,16 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+      <c r="H20" t="n">
         <v>1236.853263581029</v>
       </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1208.089653961989</v>
+      </c>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1208.089653961989</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -1364,7 +1364,9 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1316.820491624975</v>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1375,7 +1377,9 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>1194.950949095781</v>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -1384,12 +1388,8 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="n">
-        <v>1194.950949095781</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1316.820491624975</v>
-      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
@@ -1405,14 +1405,16 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1230.581845379179</v>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
         <v>1120.423994695146</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1426,9 +1428,7 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="n">
-        <v>1230.581845379179</v>
-      </c>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
@@ -1438,13 +1438,15 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>1193.923349371525</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1158.537959068563</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1193.923349371525</v>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1465,9 +1467,7 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>1158.537959068563</v>
-      </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -1477,23 +1477,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>1212.722262983049</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
+      <c r="H24" t="n">
         <v>1222.450281450726</v>
       </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>1212.722262983049</v>
-      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -1522,14 +1522,16 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
         <v>1113.066776939508</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>1202.308166851419</v>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
@@ -1538,9 +1540,7 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="n">
-        <v>1202.308166851419</v>
-      </c>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -1552,7 +1552,9 @@
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>1240.207818759038</v>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1560,17 +1562,15 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1227.320234001075</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
-        <v>1227.320234001075</v>
-      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
-        <v>1240.207818759038</v>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
@@ -1599,17 +1599,17 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1175.922061982365</v>
+      </c>
+      <c r="N27" t="n">
         <v>1197.371560754119</v>
       </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="n">
-        <v>1175.922061982365</v>
-      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -1632,21 +1632,21 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>1224.399790865172</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1196.376422318395</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1196.376422318395</v>
-      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>1224.399790865172</v>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
@@ -1668,10 +1668,14 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>1323.450634671302</v>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>1223.951702332852</v>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1689,12 +1693,8 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="n">
-        <v>1323.450634671302</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1223.951702332852</v>
-      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
@@ -1712,14 +1712,16 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1213.76014427888</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
-        <v>1213.76014427888</v>
-      </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>1215.868256573614</v>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -1728,9 +1730,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="n">
-        <v>1215.868256573614</v>
-      </c>
+      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
@@ -1743,7 +1743,9 @@
         <v>30</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>1259.76469280979</v>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -1751,15 +1753,13 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1150.329130927378</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="n">
-        <v>1259.76469280979</v>
-      </c>
+      <c r="N31" t="n">
+        <v>1150.329130927378</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -1780,22 +1780,22 @@
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
-        <v>1170.076379794805</v>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1170.076379794805</v>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1220.223391895116</v>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1220.223391895116</v>
-      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
@@ -1823,9 +1823,13 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>1251.714377470711</v>
+      </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>1063.564487777901</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -1838,15 +1842,11 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="n">
-        <v>1063.564487777901</v>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="n">
-        <v>1251.714377470711</v>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
@@ -1857,7 +1857,9 @@
         <v>33</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>1293.027610254809</v>
+      </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -1870,7 +1872,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>1293.027610254809</v>
+        <v>1182.605339128595</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -1880,9 +1882,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="n">
-        <v>1182.605339128595</v>
-      </c>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -1899,15 +1899,17 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>1285.750354919778</v>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1186.187414446049</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1186.187414446049</v>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
@@ -1920,9 +1922,7 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="n">
-        <v>1285.750354919778</v>
-      </c>
+      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
@@ -1932,7 +1932,9 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>1224.201606690003</v>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -1943,15 +1945,13 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1191.9282740514</v>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="n">
-        <v>1224.201606690003</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1191.9282740514</v>
-      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>1353.286647161983</v>
+      </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>1194.563778374491</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1986,7 +1986,9 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>1194.563778374491</v>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -1995,9 +1997,7 @@
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="n">
-        <v>1353.286647161983</v>
-      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
@@ -2008,12 +2008,16 @@
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>1216.037581761179</v>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1293.914379848602</v>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2022,9 +2026,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
-        <v>1216.037581761179</v>
-      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -2034,9 +2036,7 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="n">
-        <v>1293.914379848602</v>
-      </c>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
@@ -2047,12 +2047,12 @@
         <v>38</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>1250.899975640395</v>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>1236.691412988906</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2061,10 +2061,10 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
-        <v>1250.899975640395</v>
-      </c>
-      <c r="P39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>1236.691412988906</v>
+      </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
@@ -2088,10 +2088,10 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
-        <v>1192.258245275334</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1338.347547562174</v>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2100,7 +2100,9 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+      <c r="P40" t="n">
+        <v>1192.258245275334</v>
+      </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -2110,9 +2112,7 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="n">
-        <v>1338.347547562174</v>
-      </c>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
@@ -2124,7 +2124,9 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>1355.285662448372</v>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2133,13 +2135,13 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1189.929258765011</v>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>1189.929258765011</v>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -2147,9 +2149,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="n">
-        <v>1355.285662448372</v>
-      </c>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
@@ -2165,19 +2165,21 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1353.139433948883</v>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1175.137372378302</v>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
-        <v>1175.137372378302</v>
-      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -2186,9 +2188,7 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="n">
-        <v>1353.139433948883</v>
-      </c>
+      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
@@ -2200,10 +2200,14 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>1295.151773901707</v>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>1413.273322495548</v>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2221,12 +2225,8 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="n">
-        <v>1295.151773901707</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1413.273322495548</v>
-      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
@@ -2238,10 +2238,14 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>1290.494958951255</v>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>1417.930137446001</v>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2259,12 +2263,8 @@
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="n">
-        <v>1290.494958951255</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1417.930137446001</v>
-      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
@@ -2281,12 +2281,12 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>1055.815184015062</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1207.749303762839</v>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2299,18 +2299,18 @@
         <v>1207.749303762839</v>
       </c>
       <c r="V45" t="n">
-        <v>1055.815184015062</v>
-      </c>
-      <c r="W45" t="inlineStr"/>
+        <v>1207.749303762839</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1192.250696237161</v>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="n">
-        <v>1192.250696237161</v>
-      </c>
+      <c r="AD45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2321,26 +2321,26 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="n">
-        <v>1185.591545693386</v>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1199.351689972266</v>
+      </c>
       <c r="K46" t="n">
+        <v>1200.595868752664</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1164.737585233993</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1200.595868752664</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1199.351689972266</v>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>1185.591545693386</v>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -2360,37 +2360,37 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>1174.118492387079</v>
+        <v>1253.061284915216</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1420.091446720822</v>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1172.97606310348</v>
+      </c>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="n">
-        <v>1253.061284915216</v>
-      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="n">
-        <v>1172.97606310348</v>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>1174.118492387079</v>
+      </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="n">
-        <v>1420.091446720822</v>
-      </c>
+      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
@@ -2400,18 +2400,20 @@
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="n">
-        <v>1160.762874054691</v>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>1149.224453328448</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1160.762874054691</v>
+      </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
+      <c r="H48" t="n">
         <v>1231.76378719084</v>
       </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2421,7 +2423,9 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>1201.646276430688</v>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -2429,13 +2433,9 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="n">
-        <v>1149.224453328448</v>
-      </c>
+      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="n">
-        <v>1201.646276430688</v>
-      </c>
+      <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2444,7 +2444,9 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>1344.682047743105</v>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2452,28 +2454,26 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1153.562214970989</v>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="n">
+      <c r="Q49" t="n">
         <v>1365.958529512606</v>
       </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
         <v>1153.562214970989</v>
       </c>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="n">
+        <v>1153.562214970989</v>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="n">
-        <v>1344.682047743105</v>
-      </c>
+      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
@@ -2484,16 +2484,20 @@
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="n">
-        <v>1182.831906767014</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>1171.293486040772</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1182.831906767014</v>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>1033.746151302738</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2506,21 +2510,17 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="n">
-        <v>1033.746151302738</v>
-      </c>
-      <c r="W50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>1170.181663524838</v>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="n">
-        <v>1171.293486040772</v>
-      </c>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="n">
-        <v>1170.181663524838</v>
-      </c>
+      <c r="AD50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2531,30 +2531,30 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
-        <v>1195.165169978079</v>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1208.925314256959</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1143.988590686295</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
-        <v>1208.925314256959</v>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>1195.165169978079</v>
+      </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
         <v>1143.988590686295</v>
       </c>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="n">
+        <v>1143.988590686295</v>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -2568,40 +2568,40 @@
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>1195.074183491102</v>
+      </c>
+      <c r="F52" t="n">
         <v>1206.612604217344</v>
       </c>
-      <c r="C52" t="n">
-        <v>1150.337794936749</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1149.19536565315</v>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="n">
-        <v>1149.19536565315</v>
-      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
+      <c r="T52" t="n">
+        <v>1150.337794936749</v>
+      </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="n">
-        <v>1195.074183491102</v>
-      </c>
+      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
@@ -2611,41 +2611,41 @@
         <v>52</v>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>1269.610094774544</v>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
+      <c r="G53" t="n">
+        <v>1436.64025658015</v>
+      </c>
+      <c r="H53" t="n">
         <v>1215.214977331512</v>
       </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="n">
-        <v>1269.610094774544</v>
-      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>1185.09746657136</v>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="n">
-        <v>1436.64025658015</v>
-      </c>
+      <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="n">
-        <v>1185.09746657136</v>
-      </c>
+      <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2654,7 +2654,9 @@
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>1357.990987691132</v>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2662,28 +2664,26 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
+        <v>1187.286928804637</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1151.428645285966</v>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1187.286928804637</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="n">
+      <c r="Q54" t="n">
         <v>1379.267469460633</v>
       </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="n">
-        <v>1357.990987691132</v>
-      </c>
+      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
@@ -2699,25 +2699,27 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>1147.047326873113</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
         <v>1263.332820436478</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1160.807471151994</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
-        <v>1160.807471151994</v>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>1147.047326873113</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1233.215309676325</v>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -2727,34 +2729,34 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="n">
-        <v>1233.215309676325</v>
-      </c>
+      <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="n">
-        <v>1156.648916961702</v>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>1145.11049623546</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1156.648916961702</v>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
+        <v>1237.250616060279</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1201.392332541608</v>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1237.250616060279</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -2767,9 +2769,7 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="n">
-        <v>1145.11049623546</v>
-      </c>
+      <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
@@ -2784,24 +2784,26 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
+      <c r="H57" t="n">
         <v>1225.527042603504</v>
       </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
+        <v>1275.056393893253</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1239.198110374582</v>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1275.056393893253</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>1195.409531843351</v>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -2811,9 +2813,7 @@
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="n">
-        <v>1195.409531843351</v>
-      </c>
+      <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -2821,11 +2821,17 @@
         <v>57</v>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>1294.577229751315</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1333.023852714362</v>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>1461.607391556921</v>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2833,26 +2839,20 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="n">
-        <v>1294.577229751315</v>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="n">
+      <c r="Q58" t="n">
         <v>1354.300334483862</v>
       </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="n">
-        <v>1333.023852714362</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>1461.607391556921</v>
-      </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
@@ -2864,7 +2864,9 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>1339.635621272961</v>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -2872,28 +2874,26 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
+        <v>1268.444625334654</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1232.586341815983</v>
       </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1268.444625334654</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="n">
+      <c r="Q59" t="n">
         <v>1360.912103042461</v>
       </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="n">
-        <v>1339.635621272961</v>
-      </c>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
@@ -2905,11 +2905,17 @@
         <v>59</v>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>1256.84216061004</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1377.370690414235</v>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>1423.872322415646</v>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2917,26 +2923,20 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="n">
-        <v>1256.84216061004</v>
-      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="n">
+      <c r="Q60" t="n">
         <v>1398.647172183736</v>
       </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="n">
-        <v>1377.370690414235</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>1423.872322415646</v>
-      </c>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
@@ -2947,11 +2947,17 @@
         <v>60</v>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>1271.813139769939</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1362.399711254337</v>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>1438.843301575545</v>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2959,26 +2965,20 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="n">
-        <v>1271.813139769939</v>
-      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="n">
+      <c r="Q61" t="n">
         <v>1383.676193023838</v>
       </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="n">
-        <v>1362.399711254337</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>1438.843301575545</v>
-      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
@@ -2989,15 +2989,11 @@
         <v>61</v>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="n">
-        <v>1114.132525413403</v>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="n">
-        <v>1183.25259639646</v>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3008,9 +3004,13 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>1183.25259639646</v>
+      </c>
       <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>1114.132525413403</v>
+      </c>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
@@ -3032,9 +3032,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
-        <v>1186.140249136186</v>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -3049,7 +3047,9 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="W63" t="n">
+        <v>1184.041414388651</v>
+      </c>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
@@ -3057,7 +3057,7 @@
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="n">
-        <v>1184.041414388651</v>
+        <v>1186.140249136186</v>
       </c>
     </row>
     <row r="64">
@@ -3071,7 +3071,9 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>1032.046461246628</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -3081,39 +3083,37 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
-        <v>1201.699690056111</v>
-      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="n">
-        <v>1032.046461246628</v>
-      </c>
+      <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
+      <c r="AC64" t="n">
+        <v>1201.699690056111</v>
+      </c>
       <c r="AD64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="n">
-        <v>1184.940664217409</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>1184.940664217409</v>
+      </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
+      <c r="H65" t="n">
         <v>1197.235295347797</v>
       </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -3149,11 +3149,11 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1252.179825751289</v>
+      </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1252.179825751289</v>
-      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
@@ -3163,14 +3163,14 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="n">
-        <v>1216.264799583365</v>
-      </c>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
+      <c r="AB66" t="n">
+        <v>1216.264799583365</v>
+      </c>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
     </row>
@@ -3187,27 +3187,27 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1182.554040020469</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>1182.554040020469</v>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
-      <c r="T67" t="n">
-        <v>1250.032301795514</v>
-      </c>
+      <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
+      <c r="AA67" t="n">
+        <v>1250.032301795514</v>
+      </c>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
@@ -3224,18 +3224,20 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1150.965413526493</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
-        <v>1150.965413526493</v>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>1205.251589468852</v>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -3245,9 +3247,7 @@
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="n">
-        <v>1205.251589468852</v>
-      </c>
+      <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -3265,13 +3265,13 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1224.362678207375</v>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="n">
-        <v>1224.362678207375</v>
-      </c>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
@@ -3280,11 +3280,11 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
+      <c r="Z69" t="n">
+        <v>1124.832687445775</v>
+      </c>
       <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="n">
-        <v>1124.832687445775</v>
-      </c>
+      <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
     </row>
@@ -3298,7 +3298,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
-        <v>1222.941540698369</v>
+        <v>1399.154357273635</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3310,7 +3310,9 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>1222.941540698369</v>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -3318,9 +3320,7 @@
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="n">
-        <v>1399.154357273635</v>
-      </c>
+      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
@@ -3332,7 +3332,9 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>1375.360875950002</v>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -3351,18 +3353,16 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="W71" t="n">
+        <v>1171.080249692986</v>
+      </c>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="n">
-        <v>1375.360875950002</v>
-      </c>
+      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="n">
-        <v>1171.080249692986</v>
-      </c>
+      <c r="AD71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3383,13 +3383,11 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="n">
+      <c r="Q72" t="n">
         <v>1396.417054586546</v>
       </c>
-      <c r="S72" t="n">
-        <v>1188.958828493403</v>
-      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -3399,7 +3397,9 @@
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
+      <c r="AC72" t="n">
+        <v>1188.958828493403</v>
+      </c>
       <c r="AD72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -3412,9 +3412,11 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>1223.000073295358</v>
+      </c>
       <c r="I73" t="n">
-        <v>1223.000073295358</v>
+        <v>1006.281683299067</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3428,9 +3430,7 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="n">
-        <v>1006.281683299067</v>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -3450,17 +3450,15 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
-        <v>1113.916530489799</v>
-      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1254.777758666856</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>1254.777758666856</v>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -3476,16 +3474,16 @@
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
+      <c r="AD74" t="n">
+        <v>1113.916530489799</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="n">
-        <v>1162.800017132605</v>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
@@ -3502,17 +3500,19 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
+      <c r="T75" t="n">
+        <v>1162.800017132605</v>
+      </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
+      <c r="Z75" t="n">
+        <v>1076.165195726573</v>
+      </c>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="n">
-        <v>1076.165195726573</v>
-      </c>
+      <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
     </row>
@@ -3528,13 +3528,13 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1140.220115271984</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
-        <v>1140.220115271984</v>
-      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -3543,16 +3543,16 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="W76" t="n">
+        <v>1181.825547947496</v>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="n">
-        <v>1181.825547947496</v>
-      </c>
+      <c r="AD76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3563,11 +3563,13 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
+      <c r="G77" t="n">
+        <v>1376.249822662785</v>
+      </c>
+      <c r="H77" t="n">
         <v>1245.904607906208</v>
       </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -3584,9 +3586,7 @@
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="n">
-        <v>1376.249822662785</v>
-      </c>
+      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
@@ -3606,13 +3606,13 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
+        <v>1228.341892966386</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1278.615691451759</v>
       </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1228.341892966386</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -3635,9 +3635,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
-        <v>1212.431609331616</v>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -3653,10 +3651,10 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
-        <v>1139.327236294392</v>
-      </c>
-      <c r="T79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="n">
+        <v>1212.431609331616</v>
+      </c>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
@@ -3665,7 +3663,9 @@
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
+      <c r="AC79" t="n">
+        <v>1139.327236294392</v>
+      </c>
       <c r="AD79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3690,19 +3690,19 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="n">
-        <v>1259.926376239385</v>
-      </c>
+      <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
-      <c r="W80" t="n">
-        <v>1206.370725139493</v>
-      </c>
+      <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
-      <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr"/>
+      <c r="AA80" t="n">
+        <v>1259.926376239385</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1206.370725139493</v>
+      </c>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
     </row>
@@ -3710,16 +3710,14 @@
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B81" t="n">
-        <v>1211.310425983646</v>
-      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="n">
-        <v>1196.571778932131</v>
-      </c>
+      <c r="F81" t="n">
+        <v>1211.310425983646</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3730,7 +3728,9 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>1196.571778932131</v>
+      </c>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
@@ -3750,7 +3750,9 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>1388.825087094183</v>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -3765,21 +3767,19 @@
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>1191.787378324671</v>
+      </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="n">
-        <v>1388.825087094183</v>
-      </c>
+      <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="n">
-        <v>1191.787378324671</v>
-      </c>
+      <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3797,16 +3797,16 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1211.017180471949</v>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="n">
-        <v>1211.017180471949</v>
-      </c>
-      <c r="R83" t="n">
         <v>1409.762552321972</v>
       </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -3825,9 +3825,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="n">
-        <v>1224.053515176092</v>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
@@ -3844,17 +3842,19 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
+      <c r="T84" t="n">
+        <v>1224.053515176092</v>
+      </c>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="n">
-        <v>1194.748819295017</v>
-      </c>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
+      <c r="AB84" t="n">
+        <v>1194.748819295017</v>
+      </c>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
     </row>
@@ -3867,9 +3867,7 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="n">
-        <v>1183.651911226616</v>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3880,21 +3878,23 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>1183.651911226616</v>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
+      <c r="W85" t="n">
+        <v>1194.745415653011</v>
+      </c>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="n">
-        <v>1194.745415653011</v>
-      </c>
+      <c r="AD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3906,10 +3906,10 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="n">
+      <c r="H86" t="n">
         <v>1230.531071413275</v>
       </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
@@ -3919,7 +3919,9 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>1207.160914817604</v>
+      </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
@@ -3929,9 +3931,7 @@
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="n">
-        <v>1207.160914817604</v>
-      </c>
+      <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3947,17 +3947,17 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1203.229379615473</v>
+      </c>
+      <c r="N87" t="n">
         <v>1286.403492308235</v>
       </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="n">
-        <v>1203.229379615473</v>
-      </c>
+      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
@@ -3977,9 +3977,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="n">
-        <v>1210.225573674294</v>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
@@ -3996,19 +3994,21 @@
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
+      <c r="T88" t="n">
+        <v>1210.225573674294</v>
+      </c>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
+      <c r="W88" t="n">
+        <v>1208.57335715481</v>
+      </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="n">
-        <v>1208.57335715481</v>
-      </c>
+      <c r="AD88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4023,17 +4023,19 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1233.467836182129</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>1233.467836182129</v>
+      </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>1260.09657094371</v>
+      </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
@@ -4043,22 +4045,20 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="n">
-        <v>1260.09657094371</v>
-      </c>
+      <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B90" t="n">
-        <v>1202.341454334959</v>
-      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>1202.341454334959</v>
+      </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -4072,16 +4072,16 @@
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="n">
-        <v>1268.895347888073</v>
-      </c>
+      <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
+      <c r="AA90" t="n">
+        <v>1268.895347888073</v>
+      </c>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
@@ -4092,7 +4092,9 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>1342.131090880754</v>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -4105,19 +4107,17 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="n">
+      <c r="Q91" t="n">
         <v>1456.456548535401</v>
       </c>
+      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="n">
-        <v>1342.131090880754</v>
-      </c>
+      <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
@@ -4128,13 +4128,13 @@
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B92" t="n">
-        <v>1217.941401620645</v>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>1217.941401620645</v>
+      </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -4147,7 +4147,9 @@
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>1244.496623658024</v>
+      </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
@@ -4157,9 +4159,7 @@
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
-      <c r="AC92" t="n">
-        <v>1244.496623658024</v>
-      </c>
+      <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -4168,7 +4168,9 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>1345.836317641776</v>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -4187,30 +4189,30 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
+      <c r="W93" t="n">
+        <v>1204.868130393788</v>
+      </c>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="n">
-        <v>1345.836317641776</v>
-      </c>
+      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
-      <c r="AD93" t="n">
-        <v>1204.868130393788</v>
-      </c>
+      <c r="AD93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>1277.890315082629</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
         <v>1285.887404179793</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -4229,9 +4231,7 @@
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="n">
-        <v>1277.890315082629</v>
-      </c>
+      <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
@@ -4257,21 +4257,21 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="n">
+      <c r="Q95" t="n">
         <v>1468.857797630952</v>
       </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
-      <c r="T95" t="n">
-        <v>1256.494098792522</v>
-      </c>
+      <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
+      <c r="AA95" t="n">
+        <v>1256.494098792522</v>
+      </c>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
@@ -4280,13 +4280,13 @@
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B96" t="n">
-        <v>1308.054150695629</v>
-      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>1308.054150695629</v>
+      </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -4300,16 +4300,16 @@
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
-      <c r="T96" t="n">
-        <v>1234.327352276686</v>
-      </c>
+      <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
+      <c r="AA96" t="n">
+        <v>1234.327352276686</v>
+      </c>
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
@@ -4318,13 +4318,13 @@
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B97" t="n">
-        <v>1330.021195204519</v>
-      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>1330.021195204519</v>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -4335,10 +4335,10 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="n">
+      <c r="Q97" t="n">
         <v>1446.890753122061</v>
       </c>
+      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
@@ -4356,13 +4356,13 @@
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B98" t="n">
-        <v>1385.287080895593</v>
-      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>1385.287080895593</v>
+      </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -4373,10 +4373,10 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="n">
+      <c r="Q98" t="n">
         <v>1391.624867430988</v>
       </c>
+      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD98"/>
+  <dimension ref="A1:AD103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4390,6 +4390,216 @@
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
     </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>1440.937491956877</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1320.599411601501</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>1300.147034719307</v>
+      </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="n">
+        <v>1058.266119428515</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>1455.524158726644</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1188.642712845706</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>1314.733701489074</v>
+      </c>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="n">
+        <v>1219.740685506919</v>
+      </c>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>1475.175154270586</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>1210.880075869332</v>
+      </c>
+      <c r="I101" t="n">
+        <v>986.6306877551247</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>1334.384697033016</v>
+      </c>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>1487.171735435872</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>1198.883494704046</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>1346.381278198303</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1198.228992509007</v>
+      </c>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>1537.121990870036</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1270.649156167338</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1138.692457411543</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>1396.331533632466</v>
+      </c>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Sam Carswell-Tellis</t>
+          <t>Sam Tellis</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD103"/>
+  <dimension ref="A1:AH115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Levin Lee</t>
+          <t>Kevin Lee</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -577,6 +577,26 @@
       <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Cassie Deering</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Spencer Harris</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Bronte Sundstrom</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Parker Simpson</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Abby LeahFriend</t>
         </is>
       </c>
     </row>
@@ -621,6 +641,10 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -663,6 +687,10 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -705,6 +733,10 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -747,6 +779,10 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -789,6 +825,10 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -831,6 +871,10 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -873,6 +917,10 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -915,6 +963,10 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -957,6 +1009,10 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -999,6 +1055,10 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1041,6 +1101,10 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1083,6 +1147,10 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1125,6 +1193,10 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1167,6 +1239,10 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1205,6 +1281,10 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1243,6 +1323,10 @@
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1281,6 +1365,10 @@
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1319,6 +1407,10 @@
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1357,6 +1449,10 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1395,6 +1491,10 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1433,6 +1533,10 @@
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1471,6 +1575,10 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1509,6 +1617,10 @@
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1547,6 +1659,10 @@
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1585,6 +1701,10 @@
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1623,6 +1743,10 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1661,6 +1785,10 @@
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1699,6 +1827,10 @@
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1737,6 +1869,10 @@
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1775,6 +1911,10 @@
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1813,6 +1953,10 @@
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1851,6 +1995,10 @@
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1889,6 +2037,10 @@
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1927,6 +2079,10 @@
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1965,6 +2121,10 @@
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2003,6 +2163,10 @@
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2041,6 +2205,10 @@
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2079,6 +2247,10 @@
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2117,6 +2289,10 @@
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2155,6 +2331,10 @@
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2193,6 +2373,10 @@
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2231,6 +2415,10 @@
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2269,6 +2457,10 @@
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2311,6 +2503,10 @@
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2353,6 +2549,10 @@
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2395,6 +2595,10 @@
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2437,6 +2641,10 @@
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2479,6 +2687,10 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2521,6 +2733,10 @@
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2563,6 +2779,10 @@
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2605,6 +2825,10 @@
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2647,6 +2871,10 @@
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2689,6 +2917,10 @@
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2731,6 +2963,10 @@
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2773,6 +3009,10 @@
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2815,6 +3055,10 @@
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2857,6 +3101,10 @@
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2899,6 +3147,10 @@
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2941,6 +3193,10 @@
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2983,6 +3239,10 @@
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3021,6 +3281,10 @@
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3059,6 +3323,10 @@
       <c r="AD63" t="n">
         <v>1186.140249136186</v>
       </c>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3097,6 +3365,10 @@
         <v>1201.699690056111</v>
       </c>
       <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3135,6 +3407,10 @@
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3173,6 +3449,10 @@
       </c>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3211,6 +3491,10 @@
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3249,6 +3533,10 @@
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3287,6 +3575,10 @@
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3325,6 +3617,10 @@
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3363,6 +3659,10 @@
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3401,6 +3701,10 @@
         <v>1188.958828493403</v>
       </c>
       <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3439,6 +3743,10 @@
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3477,6 +3785,10 @@
       <c r="AD74" t="n">
         <v>1113.916530489799</v>
       </c>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3515,6 +3827,10 @@
       <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3553,6 +3869,10 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3591,6 +3911,10 @@
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3629,6 +3953,10 @@
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3667,6 +3995,10 @@
         <v>1139.327236294392</v>
       </c>
       <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3705,6 +4037,10 @@
       </c>
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3743,6 +4079,10 @@
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3781,6 +4121,10 @@
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3819,6 +4163,10 @@
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3857,6 +4205,10 @@
       </c>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3895,6 +4247,10 @@
       <c r="AB85" t="inlineStr"/>
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3933,6 +4289,10 @@
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3971,6 +4331,10 @@
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4009,6 +4373,10 @@
       <c r="AB88" t="inlineStr"/>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4047,6 +4415,10 @@
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4085,6 +4457,10 @@
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4123,6 +4499,10 @@
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4161,6 +4541,10 @@
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4199,6 +4583,10 @@
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4237,6 +4625,10 @@
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4275,6 +4667,10 @@
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4313,6 +4709,10 @@
       <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
       <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4351,6 +4751,10 @@
       <c r="AB97" t="inlineStr"/>
       <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4389,6 +4793,10 @@
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
       <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4431,6 +4839,10 @@
       <c r="AD99" t="n">
         <v>1058.266119428515</v>
       </c>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4473,6 +4885,10 @@
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4515,6 +4931,10 @@
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4557,6 +4977,10 @@
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4599,6 +5023,562 @@
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
       <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>1544.302477264692</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>1206.063981098702</v>
+      </c>
+      <c r="I104" t="n">
+        <v>979.4502013604686</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="n">
+        <v>1192.819513605344</v>
+      </c>
+      <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>1545.742079244441</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1269.209554187589</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1207.503583078451</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1137.252855431793</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>1313.684825654176</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="n">
+        <v>1427.419378002535</v>
+      </c>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="n">
+        <v>1162.43448193746</v>
+      </c>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="n">
+        <v>1040.370685155026</v>
+      </c>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>1546.311365205288</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>1208.072869039298</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>1183.082625265769</v>
+      </c>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="n">
+        <v>1199.430714039153</v>
+      </c>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>1338.099046793333</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>1521.897144066131</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>1183.658647900141</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="n">
+        <v>1451.833599141692</v>
+      </c>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>1498.287424819952</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>1160.048928653962</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1160.862574677972</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="n">
+        <v>1216.429232851523</v>
+      </c>
+      <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>1303.641964193648</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>1303.666636787274</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="n">
+        <v>1417.376516542007</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1217.539707865454</v>
+      </c>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>1275.183515985441</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1189.345695479805</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>1189.056587063621</v>
+      </c>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="n">
+        <v>1244.912353653355</v>
+      </c>
+      <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>1504.772979793352</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1281.669070958841</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>1389.845978659066</v>
+      </c>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="n">
+        <v>1193.5144450266</v>
+      </c>
+      <c r="AH112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>1536.548325813933</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1313.444416979422</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1201.692490161548</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="n">
+        <v>1385.601170521426</v>
+      </c>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>1558.36774250098</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1335.263833666469</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1167.526278792758</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="n">
+        <v>1178.180583312953</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>1578.068408583175</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1354.964499748664</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="n">
+        <v>1142.733815855265</v>
+      </c>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="n">
+        <v>1179.730047956958</v>
+      </c>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Abby LeahFriend</t>
+          <t>Abby Muller</t>
         </is>
       </c>
     </row>

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH115"/>
+  <dimension ref="A1:AO112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,41 @@
       <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Abby Muller</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Yafu LastName</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Alex LastName</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Luci Nguyen</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Eric LastName</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Kim LastName</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Julie Jackson</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Carolyn LastName</t>
         </is>
       </c>
     </row>
@@ -645,6 +680,13 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -691,6 +733,13 @@
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -737,6 +786,13 @@
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -783,6 +839,13 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -829,6 +892,13 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -875,6 +945,13 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -921,6 +998,13 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -967,6 +1051,13 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1013,6 +1104,13 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1059,6 +1157,13 @@
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1105,6 +1210,13 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1151,6 +1263,13 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1197,6 +1316,13 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1369,13 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1285,6 +1418,13 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1327,6 +1467,13 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1369,6 +1516,13 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1411,6 +1565,13 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1453,6 +1614,13 @@
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1495,6 +1663,13 @@
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1537,6 +1712,13 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1579,6 +1761,13 @@
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1621,6 +1810,13 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1663,6 +1859,13 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1705,6 +1908,13 @@
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1747,6 +1957,13 @@
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1789,6 +2006,13 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1831,6 +2055,13 @@
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1873,6 +2104,13 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1915,6 +2153,13 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1957,6 +2202,13 @@
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1999,6 +2251,13 @@
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2041,6 +2300,13 @@
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2083,6 +2349,13 @@
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2125,6 +2398,13 @@
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2167,6 +2447,13 @@
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2209,6 +2496,13 @@
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2251,6 +2545,13 @@
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2293,6 +2594,13 @@
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2335,6 +2643,13 @@
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2377,6 +2692,13 @@
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2419,6 +2741,13 @@
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2461,6 +2790,13 @@
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2507,6 +2843,13 @@
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2553,6 +2896,13 @@
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2599,6 +2949,13 @@
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2645,6 +3002,13 @@
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2691,6 +3055,13 @@
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2737,6 +3108,13 @@
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2783,6 +3161,13 @@
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2829,6 +3214,13 @@
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2875,6 +3267,13 @@
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2921,6 +3320,13 @@
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2967,6 +3373,13 @@
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3013,6 +3426,13 @@
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3059,6 +3479,13 @@
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3105,6 +3532,13 @@
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3151,6 +3585,13 @@
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3197,6 +3638,13 @@
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3243,6 +3691,13 @@
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3285,6 +3740,13 @@
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3327,6 +3789,13 @@
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3369,6 +3838,13 @@
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3411,6 +3887,13 @@
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3453,6 +3936,13 @@
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3495,6 +3985,13 @@
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
       <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3537,6 +4034,13 @@
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3579,6 +4083,13 @@
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3621,6 +4132,13 @@
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
+      <c r="AO70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3663,6 +4181,13 @@
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
       <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3705,6 +4230,13 @@
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
+      <c r="AO72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3747,6 +4279,13 @@
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3789,6 +4328,13 @@
       <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="inlineStr"/>
       <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
+      <c r="AO74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3831,6 +4377,13 @@
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
+      <c r="AO75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3873,6 +4426,13 @@
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
+      <c r="AO76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3915,6 +4475,13 @@
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
+      <c r="AO77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3957,6 +4524,13 @@
       <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
+      <c r="AO78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3999,6 +4573,13 @@
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4041,6 +4622,13 @@
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
+      <c r="AO80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4083,6 +4671,13 @@
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
       <c r="AH81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr"/>
+      <c r="AO81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4125,6 +4720,13 @@
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
+      <c r="AO82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4167,6 +4769,13 @@
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
+      <c r="AO83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4209,6 +4818,13 @@
       <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="inlineStr"/>
       <c r="AH84" t="inlineStr"/>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
+      <c r="AO84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4251,6 +4867,13 @@
       <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr"/>
+      <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
+      <c r="AO85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4293,6 +4916,13 @@
       <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
+      <c r="AO86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4335,6 +4965,13 @@
       <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
+      <c r="AO87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4377,6 +5014,13 @@
       <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="inlineStr"/>
       <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
+      <c r="AO88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4419,6 +5063,13 @@
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
+      <c r="AO89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4461,6 +5112,13 @@
       <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
+      <c r="AO90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4503,6 +5161,13 @@
       <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
+      <c r="AO91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4545,6 +5210,13 @@
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
+      <c r="AO92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4587,6 +5259,13 @@
       <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="inlineStr"/>
       <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
+      <c r="AO93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4629,6 +5308,13 @@
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="inlineStr"/>
       <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
+      <c r="AO94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4671,6 +5357,13 @@
       <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="inlineStr"/>
       <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
+      <c r="AO95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4713,6 +5406,13 @@
       <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="inlineStr"/>
       <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
+      <c r="AO96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4755,6 +5455,13 @@
       <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="inlineStr"/>
       <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
+      <c r="AO97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4797,6 +5504,13 @@
       <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="inlineStr"/>
+      <c r="AI98" t="inlineStr"/>
+      <c r="AJ98" t="inlineStr"/>
+      <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
+      <c r="AO98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4804,14 +5518,12 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>1279.803392286602</v>
+      </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="n">
-        <v>1440.937491956877</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1320.599411601501</v>
-      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4821,14 +5533,16 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
+      <c r="Q99" t="n">
+        <v>1393.537944634962</v>
+      </c>
       <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
-        <v>1300.147034719307</v>
-      </c>
+      <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
+      <c r="V99" t="n">
+        <v>1142.075513482322</v>
+      </c>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
       <c r="Y99" t="inlineStr"/>
@@ -4836,13 +5550,20 @@
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="n">
-        <v>1058.266119428515</v>
-      </c>
+      <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr"/>
+      <c r="AI99" t="n">
+        <v>1198.086922796026</v>
+      </c>
+      <c r="AJ99" t="inlineStr"/>
+      <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
+      <c r="AN99" t="inlineStr"/>
+      <c r="AO99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4852,26 +5573,22 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="n">
-        <v>1455.524158726644</v>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1188.642712845706</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>1194.533065002838</v>
+      </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
-        <v>1314.733701489074</v>
-      </c>
+      <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
@@ -4879,16 +5596,27 @@
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="n">
-        <v>1219.740685506919</v>
-      </c>
+      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
+      <c r="AC100" t="n">
+        <v>1178.262007473682</v>
+      </c>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="inlineStr"/>
+      <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="n">
+        <v>1161.06522882071</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1238.93477117929</v>
+      </c>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr"/>
+      <c r="AO100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4898,16 +5626,10 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="n">
-        <v>1475.175154270586</v>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="n">
-        <v>1210.880075869332</v>
-      </c>
-      <c r="I101" t="n">
-        <v>986.6306877551247</v>
-      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
@@ -4916,10 +5638,10 @@
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
-        <v>1334.384697033016</v>
-      </c>
+      <c r="R101" t="n">
+        <v>1219.998039134514</v>
+      </c>
+      <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
@@ -4928,13 +5650,26 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
+      <c r="AB101" t="n">
+        <v>1158.402691387119</v>
+      </c>
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr"/>
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="inlineStr"/>
+      <c r="AI101" t="inlineStr"/>
+      <c r="AJ101" t="inlineStr"/>
+      <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="n">
+        <v>1236.346127907898</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1163.653872092102</v>
+      </c>
+      <c r="AN101" t="inlineStr"/>
+      <c r="AO101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4944,15 +5679,13 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="n">
-        <v>1487.171735435872</v>
-      </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="n">
-        <v>1198.883494704046</v>
-      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1165.013988898195</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
@@ -4961,19 +5694,17 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
-        <v>1346.381278198303</v>
-      </c>
-      <c r="T102" t="n">
-        <v>1198.228992509007</v>
-      </c>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
+      <c r="AA102" t="n">
+        <v>1259.121225902897</v>
+      </c>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="inlineStr"/>
       <c r="AD102" t="inlineStr"/>
@@ -4981,6 +5712,17 @@
       <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="inlineStr"/>
+      <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="n">
+        <v>1175.206126373789</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1175.206126373789</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4990,31 +5732,27 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
-        <v>1537.121990870036</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1270.649156167338</v>
-      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1138.692457411543</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1206.051602728166</v>
+      </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
-        <v>1396.331533632466</v>
-      </c>
+      <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
+      <c r="V103" t="n">
+        <v>1130.556975756994</v>
+      </c>
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
@@ -5027,6 +5765,17 @@
       <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="inlineStr"/>
       <c r="AH103" t="inlineStr"/>
+      <c r="AI103" t="n">
+        <v>1186.568385070699</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1172.583766546037</v>
+      </c>
+      <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
+      <c r="AO103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5036,16 +5785,10 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="n">
-        <v>1544.302477264692</v>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="n">
-        <v>1206.063981098702</v>
-      </c>
-      <c r="I104" t="n">
-        <v>979.4502013604686</v>
-      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
@@ -5064,15 +5807,28 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
+      <c r="AB104" t="n">
+        <v>1111.287106874363</v>
+      </c>
       <c r="AC104" t="inlineStr"/>
       <c r="AD104" t="inlineStr"/>
       <c r="AE104" t="inlineStr"/>
-      <c r="AF104" t="n">
-        <v>1192.819513605344</v>
-      </c>
+      <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="inlineStr"/>
+      <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="n">
+        <v>1116.538287579346</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1222.321710886545</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1222.321710886545</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5080,28 +5836,24 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="n">
+        <v>1319.846460186968</v>
+      </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
-        <v>1545.742079244441</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1269.209554187589</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1207.503583078451</v>
-      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1137.252855431793</v>
-      </c>
+      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
+      <c r="Q105" t="n">
+        <v>1433.581012535328</v>
+      </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
@@ -5113,12 +5865,23 @@
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
+      <c r="AC105" t="n">
+        <v>1138.218939573316</v>
+      </c>
       <c r="AD105" t="inlineStr"/>
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="inlineStr"/>
       <c r="AH105" t="inlineStr"/>
+      <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="inlineStr"/>
+      <c r="AK105" t="n">
+        <v>1198.891703278924</v>
+      </c>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
+      <c r="AO105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5126,38 +5889,36 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="n">
-        <v>1313.684825654176</v>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1154.018573201359</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="n">
-        <v>1427.419378002535</v>
-      </c>
-      <c r="R106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>1230.99345483135</v>
+      </c>
       <c r="S106" t="inlineStr"/>
-      <c r="T106" t="n">
-        <v>1162.43448193746</v>
-      </c>
+      <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="n">
-        <v>1040.370685155026</v>
-      </c>
-      <c r="AA106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="n">
+        <v>1248.125810206061</v>
+      </c>
       <c r="AB106" t="inlineStr"/>
       <c r="AC106" t="inlineStr"/>
       <c r="AD106" t="inlineStr"/>
@@ -5165,6 +5926,15 @@
       <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="inlineStr"/>
       <c r="AH106" t="inlineStr"/>
+      <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="inlineStr"/>
+      <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="n">
+        <v>1247.341543604734</v>
+      </c>
+      <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
+      <c r="AO106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5174,13 +5944,9 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="n">
-        <v>1546.311365205288</v>
-      </c>
+      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="n">
-        <v>1208.072869039298</v>
-      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -5190,9 +5956,7 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
       <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="n">
-        <v>1183.082625265769</v>
-      </c>
+      <c r="R107" t="inlineStr"/>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
@@ -5203,14 +5967,27 @@
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
+      <c r="AC107" t="n">
+        <v>1153.570637259061</v>
+      </c>
       <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="n">
-        <v>1199.430714039153</v>
-      </c>
+      <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="inlineStr"/>
+      <c r="AK107" t="n">
+        <v>1214.243400964669</v>
+      </c>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="n">
+        <v>1206.9700132008</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1206.9700132008</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5218,28 +5995,24 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="n">
-        <v>1338.099046793333</v>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="n">
-        <v>1521.897144066131</v>
-      </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="n">
-        <v>1183.658647900141</v>
-      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1165.28531424451</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1194.784861685014</v>
+      </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="n">
-        <v>1451.833599141692</v>
-      </c>
+      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
@@ -5249,7 +6022,9 @@
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
+      <c r="AA108" t="n">
+        <v>1259.392551249212</v>
+      </c>
       <c r="AB108" t="inlineStr"/>
       <c r="AC108" t="inlineStr"/>
       <c r="AD108" t="inlineStr"/>
@@ -5257,6 +6032,15 @@
       <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="inlineStr"/>
       <c r="AH108" t="inlineStr"/>
+      <c r="AI108" t="inlineStr"/>
+      <c r="AJ108" t="n">
+        <v>1161.317025502886</v>
+      </c>
+      <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="inlineStr"/>
+      <c r="AO108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5266,20 +6050,16 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="n">
-        <v>1498.287424819952</v>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="n">
-        <v>1160.048928653962</v>
-      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1187.511997874149</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1160.862574677972</v>
-      </c>
+      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
@@ -5293,16 +6073,27 @@
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
+      <c r="AA109" t="n">
+        <v>1281.619234878851</v>
+      </c>
       <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
+      <c r="AC109" t="n">
+        <v>1131.343953629423</v>
+      </c>
       <c r="AD109" t="inlineStr"/>
       <c r="AE109" t="inlineStr"/>
-      <c r="AF109" t="n">
-        <v>1216.429232851523</v>
-      </c>
+      <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="inlineStr"/>
       <c r="AH109" t="inlineStr"/>
+      <c r="AI109" t="inlineStr"/>
+      <c r="AJ109" t="inlineStr"/>
+      <c r="AK109" t="n">
+        <v>1192.016717335031</v>
+      </c>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
+      <c r="AN109" t="inlineStr"/>
+      <c r="AO109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5311,13 +6102,11 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>1303.641964193648</v>
+        <v>1323.306272180896</v>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="n">
-        <v>1303.666636787274</v>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -5328,10 +6117,10 @@
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
       <c r="Q110" t="n">
-        <v>1417.376516542007</v>
+        <v>1437.040824529255</v>
       </c>
       <c r="R110" t="n">
-        <v>1217.539707865454</v>
+        <v>1227.533642837423</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
@@ -5349,6 +6138,15 @@
       <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="inlineStr"/>
       <c r="AH110" t="inlineStr"/>
+      <c r="AI110" t="inlineStr"/>
+      <c r="AJ110" t="inlineStr"/>
+      <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="n">
+        <v>1243.881731610807</v>
+      </c>
+      <c r="AM110" t="inlineStr"/>
+      <c r="AN110" t="inlineStr"/>
+      <c r="AO110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5359,23 +6157,21 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="n">
-        <v>1275.183515985441</v>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1175.583243937817</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1189.345695479805</v>
-      </c>
+      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="n">
-        <v>1189.056587063621</v>
+        <v>1239.462396773754</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
@@ -5385,16 +6181,25 @@
       <c r="X111" t="inlineStr"/>
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
+      <c r="AA111" t="n">
+        <v>1269.690480942519</v>
+      </c>
       <c r="AB111" t="inlineStr"/>
       <c r="AC111" t="inlineStr"/>
       <c r="AD111" t="inlineStr"/>
       <c r="AE111" t="inlineStr"/>
-      <c r="AF111" t="n">
-        <v>1244.912353653355</v>
-      </c>
+      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="inlineStr"/>
       <c r="AH111" t="inlineStr"/>
+      <c r="AI111" t="inlineStr"/>
+      <c r="AJ111" t="inlineStr"/>
+      <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="n">
+        <v>1255.810485547139</v>
+      </c>
+      <c r="AM111" t="inlineStr"/>
+      <c r="AN111" t="inlineStr"/>
+      <c r="AO111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5402,14 +6207,12 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>1327.0743302797</v>
+      </c>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="n">
-        <v>1504.772979793352</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1281.669070958841</v>
-      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5419,11 +6222,13 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1389.845978659066</v>
-      </c>
+      <c r="Q112" t="n">
+        <v>1440.80888262806</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1235.694338674949</v>
+      </c>
+      <c r="S112" t="inlineStr"/>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
@@ -5437,148 +6242,17 @@
       <c r="AD112" t="inlineStr"/>
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="n">
-        <v>1193.5144450266</v>
-      </c>
+      <c r="AG112" t="inlineStr"/>
       <c r="AH112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="n">
-        <v>1536.548325813933</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1313.444416979422</v>
-      </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
-        <v>1201.692490161548</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="n">
-        <v>1385.601170521426</v>
-      </c>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr"/>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
-      <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="inlineStr"/>
-      <c r="AH113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="n">
-        <v>1558.36774250098</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1335.263833666469</v>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1167.526278792758</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr"/>
-      <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr"/>
-      <c r="AF114" t="inlineStr"/>
-      <c r="AG114" t="inlineStr"/>
-      <c r="AH114" t="n">
-        <v>1178.180583312953</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="n">
-        <v>1578.068408583175</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1354.964499748664</v>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="n">
-        <v>1142.733815855265</v>
-      </c>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
-      <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr"/>
-      <c r="AC115" t="inlineStr"/>
-      <c r="AD115" t="inlineStr"/>
-      <c r="AE115" t="n">
-        <v>1179.730047956958</v>
-      </c>
-      <c r="AF115" t="inlineStr"/>
-      <c r="AG115" t="inlineStr"/>
-      <c r="AH115" t="inlineStr"/>
+      <c r="AI112" t="inlineStr"/>
+      <c r="AJ112" t="inlineStr"/>
+      <c r="AK112" t="inlineStr"/>
+      <c r="AL112" t="n">
+        <v>1252.042427448334</v>
+      </c>
+      <c r="AM112" t="inlineStr"/>
+      <c r="AN112" t="inlineStr"/>
+      <c r="AO112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO112"/>
+  <dimension ref="A1:AK112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,55 +581,35 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Spencer Harris</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Bronte Sundstrom</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Parker Simpson</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Abby Muller</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
           <t>Yafu LastName</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Alex LastName</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Luci Nguyen</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Eric LastName</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Kim LastName</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Julie Jackson</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Carolyn LastName</t>
         </is>
@@ -683,10 +663,6 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -736,10 +712,6 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -789,10 +761,6 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -842,10 +810,6 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -895,10 +859,6 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -948,10 +908,6 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1001,10 +957,6 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1054,10 +1006,6 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1107,10 +1055,6 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1160,10 +1104,6 @@
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1213,10 +1153,6 @@
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1266,10 +1202,6 @@
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1319,10 +1251,6 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1372,10 +1300,6 @@
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1421,10 +1345,6 @@
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1470,10 +1390,6 @@
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1519,10 +1435,6 @@
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1568,10 +1480,6 @@
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1617,10 +1525,6 @@
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1666,10 +1570,6 @@
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1715,10 +1615,6 @@
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1764,10 +1660,6 @@
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1813,10 +1705,6 @@
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1862,10 +1750,6 @@
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1911,10 +1795,6 @@
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1960,10 +1840,6 @@
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2009,10 +1885,6 @@
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2058,10 +1930,6 @@
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2107,10 +1975,6 @@
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2156,10 +2020,6 @@
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2205,10 +2065,6 @@
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2254,10 +2110,6 @@
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2303,10 +2155,6 @@
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2352,10 +2200,6 @@
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2401,10 +2245,6 @@
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2450,10 +2290,6 @@
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2499,10 +2335,6 @@
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2548,10 +2380,6 @@
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2597,10 +2425,6 @@
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2646,10 +2470,6 @@
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2695,10 +2515,6 @@
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2744,10 +2560,6 @@
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2793,10 +2605,6 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2846,10 +2654,6 @@
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
-      <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2899,10 +2703,6 @@
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
-      <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2952,10 +2752,6 @@
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
-      <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3005,10 +2801,6 @@
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3058,10 +2850,6 @@
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
-      <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3111,10 +2899,6 @@
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
       <c r="AK50" t="inlineStr"/>
-      <c r="AL50" t="inlineStr"/>
-      <c r="AM50" t="inlineStr"/>
-      <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3164,10 +2948,6 @@
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
-      <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
-      <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3217,10 +2997,6 @@
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3270,10 +3046,6 @@
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
-      <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr"/>
-      <c r="AN53" t="inlineStr"/>
-      <c r="AO53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3323,10 +3095,6 @@
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
-      <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr"/>
-      <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3376,10 +3144,6 @@
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
-      <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="inlineStr"/>
-      <c r="AN55" t="inlineStr"/>
-      <c r="AO55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3429,10 +3193,6 @@
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
-      <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="inlineStr"/>
-      <c r="AO56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3482,10 +3242,6 @@
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
-      <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3535,10 +3291,6 @@
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
       <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr"/>
-      <c r="AN58" t="inlineStr"/>
-      <c r="AO58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3588,10 +3340,6 @@
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr"/>
-      <c r="AN59" t="inlineStr"/>
-      <c r="AO59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3641,10 +3389,6 @@
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
-      <c r="AL60" t="inlineStr"/>
-      <c r="AM60" t="inlineStr"/>
-      <c r="AN60" t="inlineStr"/>
-      <c r="AO60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3694,10 +3438,6 @@
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
       <c r="AK61" t="inlineStr"/>
-      <c r="AL61" t="inlineStr"/>
-      <c r="AM61" t="inlineStr"/>
-      <c r="AN61" t="inlineStr"/>
-      <c r="AO61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3743,10 +3483,6 @@
       <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
-      <c r="AL62" t="inlineStr"/>
-      <c r="AM62" t="inlineStr"/>
-      <c r="AN62" t="inlineStr"/>
-      <c r="AO62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3792,10 +3528,6 @@
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
       <c r="AK63" t="inlineStr"/>
-      <c r="AL63" t="inlineStr"/>
-      <c r="AM63" t="inlineStr"/>
-      <c r="AN63" t="inlineStr"/>
-      <c r="AO63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3841,10 +3573,6 @@
       <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
       <c r="AK64" t="inlineStr"/>
-      <c r="AL64" t="inlineStr"/>
-      <c r="AM64" t="inlineStr"/>
-      <c r="AN64" t="inlineStr"/>
-      <c r="AO64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3890,10 +3618,6 @@
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
       <c r="AK65" t="inlineStr"/>
-      <c r="AL65" t="inlineStr"/>
-      <c r="AM65" t="inlineStr"/>
-      <c r="AN65" t="inlineStr"/>
-      <c r="AO65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3939,10 +3663,6 @@
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr"/>
       <c r="AK66" t="inlineStr"/>
-      <c r="AL66" t="inlineStr"/>
-      <c r="AM66" t="inlineStr"/>
-      <c r="AN66" t="inlineStr"/>
-      <c r="AO66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3988,10 +3708,6 @@
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
       <c r="AK67" t="inlineStr"/>
-      <c r="AL67" t="inlineStr"/>
-      <c r="AM67" t="inlineStr"/>
-      <c r="AN67" t="inlineStr"/>
-      <c r="AO67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4037,10 +3753,6 @@
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr"/>
-      <c r="AL68" t="inlineStr"/>
-      <c r="AM68" t="inlineStr"/>
-      <c r="AN68" t="inlineStr"/>
-      <c r="AO68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4086,10 +3798,6 @@
       <c r="AI69" t="inlineStr"/>
       <c r="AJ69" t="inlineStr"/>
       <c r="AK69" t="inlineStr"/>
-      <c r="AL69" t="inlineStr"/>
-      <c r="AM69" t="inlineStr"/>
-      <c r="AN69" t="inlineStr"/>
-      <c r="AO69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4135,10 +3843,6 @@
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
-      <c r="AL70" t="inlineStr"/>
-      <c r="AM70" t="inlineStr"/>
-      <c r="AN70" t="inlineStr"/>
-      <c r="AO70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4184,10 +3888,6 @@
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
-      <c r="AL71" t="inlineStr"/>
-      <c r="AM71" t="inlineStr"/>
-      <c r="AN71" t="inlineStr"/>
-      <c r="AO71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4233,10 +3933,6 @@
       <c r="AI72" t="inlineStr"/>
       <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="inlineStr"/>
-      <c r="AM72" t="inlineStr"/>
-      <c r="AN72" t="inlineStr"/>
-      <c r="AO72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4282,10 +3978,6 @@
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4331,10 +4023,6 @@
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
-      <c r="AL74" t="inlineStr"/>
-      <c r="AM74" t="inlineStr"/>
-      <c r="AN74" t="inlineStr"/>
-      <c r="AO74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4380,10 +4068,6 @@
       <c r="AI75" t="inlineStr"/>
       <c r="AJ75" t="inlineStr"/>
       <c r="AK75" t="inlineStr"/>
-      <c r="AL75" t="inlineStr"/>
-      <c r="AM75" t="inlineStr"/>
-      <c r="AN75" t="inlineStr"/>
-      <c r="AO75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4429,10 +4113,6 @@
       <c r="AI76" t="inlineStr"/>
       <c r="AJ76" t="inlineStr"/>
       <c r="AK76" t="inlineStr"/>
-      <c r="AL76" t="inlineStr"/>
-      <c r="AM76" t="inlineStr"/>
-      <c r="AN76" t="inlineStr"/>
-      <c r="AO76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4478,10 +4158,6 @@
       <c r="AI77" t="inlineStr"/>
       <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr"/>
-      <c r="AL77" t="inlineStr"/>
-      <c r="AM77" t="inlineStr"/>
-      <c r="AN77" t="inlineStr"/>
-      <c r="AO77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4527,10 +4203,6 @@
       <c r="AI78" t="inlineStr"/>
       <c r="AJ78" t="inlineStr"/>
       <c r="AK78" t="inlineStr"/>
-      <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="inlineStr"/>
-      <c r="AN78" t="inlineStr"/>
-      <c r="AO78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4576,10 +4248,6 @@
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="inlineStr"/>
-      <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4625,10 +4293,6 @@
       <c r="AI80" t="inlineStr"/>
       <c r="AJ80" t="inlineStr"/>
       <c r="AK80" t="inlineStr"/>
-      <c r="AL80" t="inlineStr"/>
-      <c r="AM80" t="inlineStr"/>
-      <c r="AN80" t="inlineStr"/>
-      <c r="AO80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4674,10 +4338,6 @@
       <c r="AI81" t="inlineStr"/>
       <c r="AJ81" t="inlineStr"/>
       <c r="AK81" t="inlineStr"/>
-      <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="inlineStr"/>
-      <c r="AN81" t="inlineStr"/>
-      <c r="AO81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4723,10 +4383,6 @@
       <c r="AI82" t="inlineStr"/>
       <c r="AJ82" t="inlineStr"/>
       <c r="AK82" t="inlineStr"/>
-      <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="inlineStr"/>
-      <c r="AN82" t="inlineStr"/>
-      <c r="AO82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4772,10 +4428,6 @@
       <c r="AI83" t="inlineStr"/>
       <c r="AJ83" t="inlineStr"/>
       <c r="AK83" t="inlineStr"/>
-      <c r="AL83" t="inlineStr"/>
-      <c r="AM83" t="inlineStr"/>
-      <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4821,10 +4473,6 @@
       <c r="AI84" t="inlineStr"/>
       <c r="AJ84" t="inlineStr"/>
       <c r="AK84" t="inlineStr"/>
-      <c r="AL84" t="inlineStr"/>
-      <c r="AM84" t="inlineStr"/>
-      <c r="AN84" t="inlineStr"/>
-      <c r="AO84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4870,10 +4518,6 @@
       <c r="AI85" t="inlineStr"/>
       <c r="AJ85" t="inlineStr"/>
       <c r="AK85" t="inlineStr"/>
-      <c r="AL85" t="inlineStr"/>
-      <c r="AM85" t="inlineStr"/>
-      <c r="AN85" t="inlineStr"/>
-      <c r="AO85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4919,10 +4563,6 @@
       <c r="AI86" t="inlineStr"/>
       <c r="AJ86" t="inlineStr"/>
       <c r="AK86" t="inlineStr"/>
-      <c r="AL86" t="inlineStr"/>
-      <c r="AM86" t="inlineStr"/>
-      <c r="AN86" t="inlineStr"/>
-      <c r="AO86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4968,10 +4608,6 @@
       <c r="AI87" t="inlineStr"/>
       <c r="AJ87" t="inlineStr"/>
       <c r="AK87" t="inlineStr"/>
-      <c r="AL87" t="inlineStr"/>
-      <c r="AM87" t="inlineStr"/>
-      <c r="AN87" t="inlineStr"/>
-      <c r="AO87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5017,10 +4653,6 @@
       <c r="AI88" t="inlineStr"/>
       <c r="AJ88" t="inlineStr"/>
       <c r="AK88" t="inlineStr"/>
-      <c r="AL88" t="inlineStr"/>
-      <c r="AM88" t="inlineStr"/>
-      <c r="AN88" t="inlineStr"/>
-      <c r="AO88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5066,10 +4698,6 @@
       <c r="AI89" t="inlineStr"/>
       <c r="AJ89" t="inlineStr"/>
       <c r="AK89" t="inlineStr"/>
-      <c r="AL89" t="inlineStr"/>
-      <c r="AM89" t="inlineStr"/>
-      <c r="AN89" t="inlineStr"/>
-      <c r="AO89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5115,10 +4743,6 @@
       <c r="AI90" t="inlineStr"/>
       <c r="AJ90" t="inlineStr"/>
       <c r="AK90" t="inlineStr"/>
-      <c r="AL90" t="inlineStr"/>
-      <c r="AM90" t="inlineStr"/>
-      <c r="AN90" t="inlineStr"/>
-      <c r="AO90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5164,10 +4788,6 @@
       <c r="AI91" t="inlineStr"/>
       <c r="AJ91" t="inlineStr"/>
       <c r="AK91" t="inlineStr"/>
-      <c r="AL91" t="inlineStr"/>
-      <c r="AM91" t="inlineStr"/>
-      <c r="AN91" t="inlineStr"/>
-      <c r="AO91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5213,10 +4833,6 @@
       <c r="AI92" t="inlineStr"/>
       <c r="AJ92" t="inlineStr"/>
       <c r="AK92" t="inlineStr"/>
-      <c r="AL92" t="inlineStr"/>
-      <c r="AM92" t="inlineStr"/>
-      <c r="AN92" t="inlineStr"/>
-      <c r="AO92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5262,10 +4878,6 @@
       <c r="AI93" t="inlineStr"/>
       <c r="AJ93" t="inlineStr"/>
       <c r="AK93" t="inlineStr"/>
-      <c r="AL93" t="inlineStr"/>
-      <c r="AM93" t="inlineStr"/>
-      <c r="AN93" t="inlineStr"/>
-      <c r="AO93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5311,10 +4923,6 @@
       <c r="AI94" t="inlineStr"/>
       <c r="AJ94" t="inlineStr"/>
       <c r="AK94" t="inlineStr"/>
-      <c r="AL94" t="inlineStr"/>
-      <c r="AM94" t="inlineStr"/>
-      <c r="AN94" t="inlineStr"/>
-      <c r="AO94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5360,10 +4968,6 @@
       <c r="AI95" t="inlineStr"/>
       <c r="AJ95" t="inlineStr"/>
       <c r="AK95" t="inlineStr"/>
-      <c r="AL95" t="inlineStr"/>
-      <c r="AM95" t="inlineStr"/>
-      <c r="AN95" t="inlineStr"/>
-      <c r="AO95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5409,10 +5013,6 @@
       <c r="AI96" t="inlineStr"/>
       <c r="AJ96" t="inlineStr"/>
       <c r="AK96" t="inlineStr"/>
-      <c r="AL96" t="inlineStr"/>
-      <c r="AM96" t="inlineStr"/>
-      <c r="AN96" t="inlineStr"/>
-      <c r="AO96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5458,10 +5058,6 @@
       <c r="AI97" t="inlineStr"/>
       <c r="AJ97" t="inlineStr"/>
       <c r="AK97" t="inlineStr"/>
-      <c r="AL97" t="inlineStr"/>
-      <c r="AM97" t="inlineStr"/>
-      <c r="AN97" t="inlineStr"/>
-      <c r="AO97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5507,10 +5103,6 @@
       <c r="AI98" t="inlineStr"/>
       <c r="AJ98" t="inlineStr"/>
       <c r="AK98" t="inlineStr"/>
-      <c r="AL98" t="inlineStr"/>
-      <c r="AM98" t="inlineStr"/>
-      <c r="AN98" t="inlineStr"/>
-      <c r="AO98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5551,19 +5143,15 @@
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
+      <c r="AE99" t="n">
+        <v>1198.086922796026</v>
+      </c>
       <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr"/>
-      <c r="AI99" t="n">
-        <v>1198.086922796026</v>
-      </c>
+      <c r="AI99" t="inlineStr"/>
       <c r="AJ99" t="inlineStr"/>
       <c r="AK99" t="inlineStr"/>
-      <c r="AL99" t="inlineStr"/>
-      <c r="AM99" t="inlineStr"/>
-      <c r="AN99" t="inlineStr"/>
-      <c r="AO99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5603,20 +5191,16 @@
       </c>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
+      <c r="AF100" t="n">
+        <v>1161.06522882071</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1238.93477117929</v>
+      </c>
       <c r="AH100" t="inlineStr"/>
       <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="n">
-        <v>1161.06522882071</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>1238.93477117929</v>
-      </c>
-      <c r="AL100" t="inlineStr"/>
-      <c r="AM100" t="inlineStr"/>
-      <c r="AN100" t="inlineStr"/>
-      <c r="AO100" t="inlineStr"/>
+      <c r="AJ100" t="inlineStr"/>
+      <c r="AK100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5658,18 +5242,14 @@
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="inlineStr"/>
-      <c r="AH101" t="inlineStr"/>
-      <c r="AI101" t="inlineStr"/>
+      <c r="AH101" t="n">
+        <v>1236.346127907898</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1163.653872092102</v>
+      </c>
       <c r="AJ101" t="inlineStr"/>
       <c r="AK101" t="inlineStr"/>
-      <c r="AL101" t="n">
-        <v>1236.346127907898</v>
-      </c>
-      <c r="AM101" t="n">
-        <v>1163.653872092102</v>
-      </c>
-      <c r="AN101" t="inlineStr"/>
-      <c r="AO101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5713,14 +5293,10 @@
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
       <c r="AI102" t="inlineStr"/>
-      <c r="AJ102" t="inlineStr"/>
-      <c r="AK102" t="inlineStr"/>
-      <c r="AL102" t="inlineStr"/>
-      <c r="AM102" t="inlineStr"/>
-      <c r="AN102" t="n">
+      <c r="AJ102" t="n">
         <v>1175.206126373789</v>
       </c>
-      <c r="AO102" t="n">
+      <c r="AK102" t="n">
         <v>1175.206126373789</v>
       </c>
     </row>
@@ -5761,21 +5337,17 @@
       <c r="AB103" t="inlineStr"/>
       <c r="AC103" t="inlineStr"/>
       <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr"/>
-      <c r="AF103" t="inlineStr"/>
+      <c r="AE103" t="n">
+        <v>1186.568385070699</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1172.583766546037</v>
+      </c>
       <c r="AG103" t="inlineStr"/>
       <c r="AH103" t="inlineStr"/>
-      <c r="AI103" t="n">
-        <v>1186.568385070699</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>1172.583766546037</v>
-      </c>
+      <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="inlineStr"/>
       <c r="AK103" t="inlineStr"/>
-      <c r="AL103" t="inlineStr"/>
-      <c r="AM103" t="inlineStr"/>
-      <c r="AN103" t="inlineStr"/>
-      <c r="AO103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5816,17 +5388,13 @@
       <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="inlineStr"/>
-      <c r="AI104" t="inlineStr"/>
-      <c r="AJ104" t="inlineStr"/>
-      <c r="AK104" t="inlineStr"/>
-      <c r="AL104" t="inlineStr"/>
-      <c r="AM104" t="n">
+      <c r="AI104" t="n">
         <v>1116.538287579346</v>
       </c>
-      <c r="AN104" t="n">
+      <c r="AJ104" t="n">
         <v>1222.321710886545</v>
       </c>
-      <c r="AO104" t="n">
+      <c r="AK104" t="n">
         <v>1222.321710886545</v>
       </c>
     </row>
@@ -5871,17 +5439,13 @@
       <c r="AD105" t="inlineStr"/>
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr"/>
-      <c r="AG105" t="inlineStr"/>
+      <c r="AG105" t="n">
+        <v>1198.891703278924</v>
+      </c>
       <c r="AH105" t="inlineStr"/>
       <c r="AI105" t="inlineStr"/>
       <c r="AJ105" t="inlineStr"/>
-      <c r="AK105" t="n">
-        <v>1198.891703278924</v>
-      </c>
-      <c r="AL105" t="inlineStr"/>
-      <c r="AM105" t="inlineStr"/>
-      <c r="AN105" t="inlineStr"/>
-      <c r="AO105" t="inlineStr"/>
+      <c r="AK105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5925,16 +5489,12 @@
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="inlineStr"/>
-      <c r="AH106" t="inlineStr"/>
+      <c r="AH106" t="n">
+        <v>1247.341543604734</v>
+      </c>
       <c r="AI106" t="inlineStr"/>
       <c r="AJ106" t="inlineStr"/>
       <c r="AK106" t="inlineStr"/>
-      <c r="AL106" t="n">
-        <v>1247.341543604734</v>
-      </c>
-      <c r="AM106" t="inlineStr"/>
-      <c r="AN106" t="inlineStr"/>
-      <c r="AO106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5973,19 +5533,15 @@
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
-      <c r="AG107" t="inlineStr"/>
+      <c r="AG107" t="n">
+        <v>1214.243400964669</v>
+      </c>
       <c r="AH107" t="inlineStr"/>
       <c r="AI107" t="inlineStr"/>
-      <c r="AJ107" t="inlineStr"/>
+      <c r="AJ107" t="n">
+        <v>1206.9700132008</v>
+      </c>
       <c r="AK107" t="n">
-        <v>1214.243400964669</v>
-      </c>
-      <c r="AL107" t="inlineStr"/>
-      <c r="AM107" t="inlineStr"/>
-      <c r="AN107" t="n">
-        <v>1206.9700132008</v>
-      </c>
-      <c r="AO107" t="n">
         <v>1206.9700132008</v>
       </c>
     </row>
@@ -6029,18 +5585,14 @@
       <c r="AC108" t="inlineStr"/>
       <c r="AD108" t="inlineStr"/>
       <c r="AE108" t="inlineStr"/>
-      <c r="AF108" t="inlineStr"/>
+      <c r="AF108" t="n">
+        <v>1161.317025502886</v>
+      </c>
       <c r="AG108" t="inlineStr"/>
       <c r="AH108" t="inlineStr"/>
       <c r="AI108" t="inlineStr"/>
-      <c r="AJ108" t="n">
-        <v>1161.317025502886</v>
-      </c>
+      <c r="AJ108" t="inlineStr"/>
       <c r="AK108" t="inlineStr"/>
-      <c r="AL108" t="inlineStr"/>
-      <c r="AM108" t="inlineStr"/>
-      <c r="AN108" t="inlineStr"/>
-      <c r="AO108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6083,17 +5635,13 @@
       <c r="AD109" t="inlineStr"/>
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr"/>
-      <c r="AG109" t="inlineStr"/>
+      <c r="AG109" t="n">
+        <v>1192.016717335031</v>
+      </c>
       <c r="AH109" t="inlineStr"/>
       <c r="AI109" t="inlineStr"/>
       <c r="AJ109" t="inlineStr"/>
-      <c r="AK109" t="n">
-        <v>1192.016717335031</v>
-      </c>
-      <c r="AL109" t="inlineStr"/>
-      <c r="AM109" t="inlineStr"/>
-      <c r="AN109" t="inlineStr"/>
-      <c r="AO109" t="inlineStr"/>
+      <c r="AK109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6137,16 +5685,12 @@
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="inlineStr"/>
-      <c r="AH110" t="inlineStr"/>
+      <c r="AH110" t="n">
+        <v>1243.881731610807</v>
+      </c>
       <c r="AI110" t="inlineStr"/>
       <c r="AJ110" t="inlineStr"/>
       <c r="AK110" t="inlineStr"/>
-      <c r="AL110" t="n">
-        <v>1243.881731610807</v>
-      </c>
-      <c r="AM110" t="inlineStr"/>
-      <c r="AN110" t="inlineStr"/>
-      <c r="AO110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6190,16 +5734,12 @@
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="inlineStr"/>
-      <c r="AH111" t="inlineStr"/>
+      <c r="AH111" t="n">
+        <v>1255.810485547139</v>
+      </c>
       <c r="AI111" t="inlineStr"/>
       <c r="AJ111" t="inlineStr"/>
       <c r="AK111" t="inlineStr"/>
-      <c r="AL111" t="n">
-        <v>1255.810485547139</v>
-      </c>
-      <c r="AM111" t="inlineStr"/>
-      <c r="AN111" t="inlineStr"/>
-      <c r="AO111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6243,16 +5783,12 @@
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
-      <c r="AH112" t="inlineStr"/>
+      <c r="AH112" t="n">
+        <v>1252.042427448334</v>
+      </c>
       <c r="AI112" t="inlineStr"/>
       <c r="AJ112" t="inlineStr"/>
       <c r="AK112" t="inlineStr"/>
-      <c r="AL112" t="n">
-        <v>1252.042427448334</v>
-      </c>
-      <c r="AM112" t="inlineStr"/>
-      <c r="AN112" t="inlineStr"/>
-      <c r="AO112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK112"/>
+  <dimension ref="A1:AM130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,16 @@
       <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Carolyn LastName</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Matthew Werfel</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Autumn Hong</t>
         </is>
       </c>
     </row>
@@ -663,6 +673,8 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -712,6 +724,8 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -761,6 +775,8 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -810,6 +826,8 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -859,6 +877,8 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -908,6 +928,8 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -957,6 +979,8 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1006,6 +1030,8 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1055,6 +1081,8 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1104,6 +1132,8 @@
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1153,6 +1183,8 @@
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1202,6 +1234,8 @@
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1251,6 +1285,8 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1300,6 +1336,8 @@
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1345,6 +1383,8 @@
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1390,6 +1430,8 @@
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1435,6 +1477,8 @@
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1480,6 +1524,8 @@
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1525,6 +1571,8 @@
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1570,6 +1618,8 @@
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1615,6 +1665,8 @@
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1660,6 +1712,8 @@
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1705,6 +1759,8 @@
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1750,6 +1806,8 @@
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1795,6 +1853,8 @@
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1840,6 +1900,8 @@
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1885,6 +1947,8 @@
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1930,6 +1994,8 @@
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1975,6 +2041,8 @@
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2020,6 +2088,8 @@
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2065,6 +2135,8 @@
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2110,6 +2182,8 @@
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2155,6 +2229,8 @@
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2200,6 +2276,8 @@
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2245,6 +2323,8 @@
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2290,6 +2370,8 @@
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2335,6 +2417,8 @@
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2380,6 +2464,8 @@
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2425,6 +2511,8 @@
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2470,6 +2558,8 @@
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2515,6 +2605,8 @@
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2560,6 +2652,8 @@
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2605,6 +2699,8 @@
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2654,6 +2750,8 @@
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2703,6 +2801,8 @@
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2752,6 +2852,8 @@
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2801,6 +2903,8 @@
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2850,6 +2954,8 @@
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2899,6 +3005,8 @@
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
       <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2948,6 +3056,8 @@
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2997,6 +3107,8 @@
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3046,6 +3158,8 @@
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3095,6 +3209,8 @@
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3144,6 +3260,8 @@
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3193,6 +3311,8 @@
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3242,6 +3362,8 @@
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3291,6 +3413,8 @@
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
       <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3340,6 +3464,8 @@
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3389,6 +3515,8 @@
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3438,6 +3566,8 @@
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
       <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3483,6 +3613,8 @@
       <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3528,6 +3660,8 @@
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
       <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3573,6 +3707,8 @@
       <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
       <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3618,6 +3754,8 @@
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
       <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3663,6 +3801,8 @@
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr"/>
       <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3708,6 +3848,8 @@
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
       <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3753,6 +3895,8 @@
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3798,6 +3942,8 @@
       <c r="AI69" t="inlineStr"/>
       <c r="AJ69" t="inlineStr"/>
       <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3843,6 +3989,8 @@
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3888,6 +4036,8 @@
       <c r="AI71" t="inlineStr"/>
       <c r="AJ71" t="inlineStr"/>
       <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3933,6 +4083,8 @@
       <c r="AI72" t="inlineStr"/>
       <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3978,6 +4130,8 @@
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4023,6 +4177,8 @@
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4068,6 +4224,8 @@
       <c r="AI75" t="inlineStr"/>
       <c r="AJ75" t="inlineStr"/>
       <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4113,6 +4271,8 @@
       <c r="AI76" t="inlineStr"/>
       <c r="AJ76" t="inlineStr"/>
       <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4158,6 +4318,8 @@
       <c r="AI77" t="inlineStr"/>
       <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4203,6 +4365,8 @@
       <c r="AI78" t="inlineStr"/>
       <c r="AJ78" t="inlineStr"/>
       <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4248,6 +4412,8 @@
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4293,6 +4459,8 @@
       <c r="AI80" t="inlineStr"/>
       <c r="AJ80" t="inlineStr"/>
       <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4338,6 +4506,8 @@
       <c r="AI81" t="inlineStr"/>
       <c r="AJ81" t="inlineStr"/>
       <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4383,6 +4553,8 @@
       <c r="AI82" t="inlineStr"/>
       <c r="AJ82" t="inlineStr"/>
       <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4428,6 +4600,8 @@
       <c r="AI83" t="inlineStr"/>
       <c r="AJ83" t="inlineStr"/>
       <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4473,6 +4647,8 @@
       <c r="AI84" t="inlineStr"/>
       <c r="AJ84" t="inlineStr"/>
       <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4518,6 +4694,8 @@
       <c r="AI85" t="inlineStr"/>
       <c r="AJ85" t="inlineStr"/>
       <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4563,6 +4741,8 @@
       <c r="AI86" t="inlineStr"/>
       <c r="AJ86" t="inlineStr"/>
       <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4608,6 +4788,8 @@
       <c r="AI87" t="inlineStr"/>
       <c r="AJ87" t="inlineStr"/>
       <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4653,6 +4835,8 @@
       <c r="AI88" t="inlineStr"/>
       <c r="AJ88" t="inlineStr"/>
       <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4698,6 +4882,8 @@
       <c r="AI89" t="inlineStr"/>
       <c r="AJ89" t="inlineStr"/>
       <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4743,6 +4929,8 @@
       <c r="AI90" t="inlineStr"/>
       <c r="AJ90" t="inlineStr"/>
       <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4788,6 +4976,8 @@
       <c r="AI91" t="inlineStr"/>
       <c r="AJ91" t="inlineStr"/>
       <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4833,6 +5023,8 @@
       <c r="AI92" t="inlineStr"/>
       <c r="AJ92" t="inlineStr"/>
       <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4878,6 +5070,8 @@
       <c r="AI93" t="inlineStr"/>
       <c r="AJ93" t="inlineStr"/>
       <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4923,6 +5117,8 @@
       <c r="AI94" t="inlineStr"/>
       <c r="AJ94" t="inlineStr"/>
       <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4968,6 +5164,8 @@
       <c r="AI95" t="inlineStr"/>
       <c r="AJ95" t="inlineStr"/>
       <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5013,6 +5211,8 @@
       <c r="AI96" t="inlineStr"/>
       <c r="AJ96" t="inlineStr"/>
       <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5058,6 +5258,8 @@
       <c r="AI97" t="inlineStr"/>
       <c r="AJ97" t="inlineStr"/>
       <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5103,6 +5305,8 @@
       <c r="AI98" t="inlineStr"/>
       <c r="AJ98" t="inlineStr"/>
       <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5152,6 +5356,8 @@
       <c r="AI99" t="inlineStr"/>
       <c r="AJ99" t="inlineStr"/>
       <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5201,6 +5407,8 @@
       <c r="AI100" t="inlineStr"/>
       <c r="AJ100" t="inlineStr"/>
       <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5250,6 +5458,8 @@
       </c>
       <c r="AJ101" t="inlineStr"/>
       <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5299,6 +5509,8 @@
       <c r="AK102" t="n">
         <v>1175.206126373789</v>
       </c>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5348,6 +5560,8 @@
       <c r="AI103" t="inlineStr"/>
       <c r="AJ103" t="inlineStr"/>
       <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5397,6 +5611,8 @@
       <c r="AK104" t="n">
         <v>1222.321710886545</v>
       </c>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5446,6 +5662,8 @@
       <c r="AI105" t="inlineStr"/>
       <c r="AJ105" t="inlineStr"/>
       <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5495,6 +5713,8 @@
       <c r="AI106" t="inlineStr"/>
       <c r="AJ106" t="inlineStr"/>
       <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5544,6 +5764,8 @@
       <c r="AK107" t="n">
         <v>1206.9700132008</v>
       </c>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5593,6 +5815,8 @@
       <c r="AI108" t="inlineStr"/>
       <c r="AJ108" t="inlineStr"/>
       <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5642,6 +5866,8 @@
       <c r="AI109" t="inlineStr"/>
       <c r="AJ109" t="inlineStr"/>
       <c r="AK109" t="inlineStr"/>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5691,6 +5917,8 @@
       <c r="AI110" t="inlineStr"/>
       <c r="AJ110" t="inlineStr"/>
       <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="inlineStr"/>
+      <c r="AM110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5740,6 +5968,8 @@
       <c r="AI111" t="inlineStr"/>
       <c r="AJ111" t="inlineStr"/>
       <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="inlineStr"/>
+      <c r="AM111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5789,6 +6019,854 @@
       <c r="AI112" t="inlineStr"/>
       <c r="AJ112" t="inlineStr"/>
       <c r="AK112" t="inlineStr"/>
+      <c r="AL112" t="inlineStr"/>
+      <c r="AM112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="n">
+        <v>1167.360592565947</v>
+      </c>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="n">
+        <v>1145.801722319642</v>
+      </c>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
+      <c r="AI113" t="inlineStr"/>
+      <c r="AJ113" t="inlineStr"/>
+      <c r="AK113" t="inlineStr"/>
+      <c r="AL113" t="inlineStr"/>
+      <c r="AM113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="n">
+        <v>1180.514732480967</v>
+      </c>
+      <c r="AH114" t="inlineStr"/>
+      <c r="AI114" t="inlineStr"/>
+      <c r="AJ114" t="inlineStr"/>
+      <c r="AK114" t="inlineStr"/>
+      <c r="AL114" t="inlineStr"/>
+      <c r="AM114" t="n">
+        <v>1211.501984854063</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1210.750723228183</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="n">
+        <v>1123.822610016713</v>
+      </c>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
+      <c r="AI115" t="inlineStr"/>
+      <c r="AJ115" t="inlineStr"/>
+      <c r="AK115" t="inlineStr"/>
+      <c r="AL115" t="inlineStr"/>
+      <c r="AM115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1207.110196728575</v>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="inlineStr"/>
+      <c r="AH116" t="inlineStr"/>
+      <c r="AI116" t="inlineStr"/>
+      <c r="AJ116" t="inlineStr"/>
+      <c r="AK116" t="inlineStr"/>
+      <c r="AL116" t="n">
+        <v>1187.67466495644</v>
+      </c>
+      <c r="AM116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="n">
+        <v>1458.795962741881</v>
+      </c>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="n">
+        <v>1127.81464220582</v>
+      </c>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+      <c r="AG117" t="inlineStr"/>
+      <c r="AH117" t="inlineStr"/>
+      <c r="AI117" t="inlineStr"/>
+      <c r="AJ117" t="inlineStr"/>
+      <c r="AK117" t="inlineStr"/>
+      <c r="AL117" t="inlineStr"/>
+      <c r="AM117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="n">
+        <v>1307.888553846022</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+      <c r="AG118" t="inlineStr"/>
+      <c r="AH118" t="inlineStr"/>
+      <c r="AI118" t="inlineStr"/>
+      <c r="AJ118" t="inlineStr"/>
+      <c r="AK118" t="inlineStr"/>
+      <c r="AL118" t="inlineStr"/>
+      <c r="AM118" t="n">
+        <v>1230.687761287742</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="n">
+        <v>1151.356407027111</v>
+      </c>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="n">
+        <v>1152.980935470569</v>
+      </c>
+      <c r="AH119" t="inlineStr"/>
+      <c r="AI119" t="inlineStr"/>
+      <c r="AJ119" t="inlineStr"/>
+      <c r="AK119" t="inlineStr"/>
+      <c r="AL119" t="inlineStr"/>
+      <c r="AM119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="n">
+        <v>1156.627719501922</v>
+      </c>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr"/>
+      <c r="AH120" t="inlineStr"/>
+      <c r="AI120" t="inlineStr"/>
+      <c r="AJ120" t="inlineStr"/>
+      <c r="AK120" t="inlineStr"/>
+      <c r="AL120" t="n">
+        <v>1198.407538020464</v>
+      </c>
+      <c r="AM120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="n">
+        <v>1093.283050278138</v>
+      </c>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="n">
+        <v>1185.887998954794</v>
+      </c>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+      <c r="AG121" t="inlineStr"/>
+      <c r="AH121" t="inlineStr"/>
+      <c r="AI121" t="inlineStr"/>
+      <c r="AJ121" t="inlineStr"/>
+      <c r="AK121" t="inlineStr"/>
+      <c r="AL121" t="inlineStr"/>
+      <c r="AM121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="n">
+        <v>1313.07918412662</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr"/>
+      <c r="AI122" t="inlineStr"/>
+      <c r="AJ122" t="inlineStr"/>
+      <c r="AK122" t="inlineStr"/>
+      <c r="AL122" t="n">
+        <v>1193.216907739866</v>
+      </c>
+      <c r="AM122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1213.9906736079</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="n">
+        <v>1455.556012362165</v>
+      </c>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
+      <c r="AI123" t="inlineStr"/>
+      <c r="AJ123" t="inlineStr"/>
+      <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1196.580837174427</v>
+      </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
+      <c r="AI124" t="inlineStr"/>
+      <c r="AJ124" t="inlineStr"/>
+      <c r="AK124" t="inlineStr"/>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="n">
+        <v>1241.217120841889</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="n">
+        <v>1282.912864074036</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1244.156993660484</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
+      <c r="AI125" t="inlineStr"/>
+      <c r="AJ125" t="inlineStr"/>
+      <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1183.913802299198</v>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="n">
+        <v>1198.555033830023</v>
+      </c>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
+      <c r="AI126" t="inlineStr"/>
+      <c r="AJ126" t="inlineStr"/>
+      <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1217.313674809931</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="n">
+        <v>1225.398352680575</v>
+      </c>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
+      <c r="AI127" t="inlineStr"/>
+      <c r="AJ127" t="inlineStr"/>
+      <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="n">
+        <v>1454.336481673026</v>
+      </c>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
+      <c r="AH128" t="inlineStr"/>
+      <c r="AI128" t="inlineStr"/>
+      <c r="AJ128" t="inlineStr"/>
+      <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="n">
+        <v>1242.436651531028</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="n">
+        <v>1262.461179866127</v>
+      </c>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
+      <c r="AH129" t="inlineStr"/>
+      <c r="AI129" t="inlineStr"/>
+      <c r="AJ129" t="inlineStr"/>
+      <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="n">
+        <v>1205.373824345477</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="n">
+        <v>1478.475746292782</v>
+      </c>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="n">
+        <v>1238.321915246371</v>
+      </c>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
+      <c r="AH130" t="inlineStr"/>
+      <c r="AI130" t="inlineStr"/>
+      <c r="AJ130" t="inlineStr"/>
+      <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exports/elo_time_table.xlsx
+++ b/exports/elo_time_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Kristian Banlaoi</t>
   </si>
@@ -145,10 +145,16 @@
     <t>Rasmi Tangirala</t>
   </si>
   <si>
-    <t>Alexis LastName</t>
-  </si>
-  <si>
-    <t>Charles M</t>
+    <t>Alexis Alms</t>
+  </si>
+  <si>
+    <t>Charles Myersberg</t>
+  </si>
+  <si>
+    <t>Bryce Taylor</t>
+  </si>
+  <si>
+    <t>Ronan McKinney</t>
   </si>
 </sst>
 </file>
@@ -506,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT142"/>
+  <dimension ref="A1:AV168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,8 +654,14 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -666,7 +678,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -683,7 +695,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:48">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -700,7 +712,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -717,7 +729,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:48">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -734,7 +746,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:48">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -751,7 +763,7 @@
         <v>1185.754931176571</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:48">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -768,7 +780,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:48">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -785,7 +797,7 @@
         <v>1281.754931176571</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:48">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -802,7 +814,7 @@
         <v>1176.279801661901</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:48">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -819,7 +831,7 @@
         <v>1202.245068823429</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:48">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -836,7 +848,7 @@
         <v>1192.332770690573</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:48">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -853,7 +865,7 @@
         <v>1267.649789171797</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:48">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -870,7 +882,7 @@
         <v>1302.276445568426</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:48">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -887,7 +899,7 @@
         <v>1311.771440720756</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:48">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2540,6 +2552,292 @@
       </c>
       <c r="AO142">
         <v>1241.167212605164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:46">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="V143">
+        <v>1032.249732300647</v>
+      </c>
+      <c r="AN143">
+        <v>1278.544059558225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:46">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="AL144">
+        <v>1215.844042234289</v>
+      </c>
+      <c r="AS144">
+        <v>1148.580147214249</v>
+      </c>
+    </row>
+    <row r="145" spans="1:48">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="N145">
+        <v>1150.735628513281</v>
+      </c>
+      <c r="AV145">
+        <v>1209.521702761487</v>
+      </c>
+    </row>
+    <row r="146" spans="1:48">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="AP146">
+        <v>1183.211481542908</v>
+      </c>
+      <c r="AQ146">
+        <v>1231.211481542908</v>
+      </c>
+    </row>
+    <row r="147" spans="1:48">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="AH147">
+        <v>1250.858617494074</v>
+      </c>
+      <c r="AJ147">
+        <v>1171.494862448083</v>
+      </c>
+    </row>
+    <row r="148" spans="1:48">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="AM148">
+        <v>1217.038590160529</v>
+      </c>
+      <c r="AU148">
+        <v>1188.335234184947</v>
+      </c>
+    </row>
+    <row r="149" spans="1:48">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="N149">
+        <v>1198.601162748948</v>
+      </c>
+      <c r="AS149">
+        <v>1100.714612978582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:48">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="AJ150">
+        <v>1136.545344957142</v>
+      </c>
+      <c r="AU150">
+        <v>1223.284751675888</v>
+      </c>
+    </row>
+    <row r="151" spans="1:48">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="Q151">
+        <v>1567.719778616388</v>
+      </c>
+      <c r="AN151">
+        <v>1259.069175665553</v>
+      </c>
+    </row>
+    <row r="152" spans="1:48">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="AL152">
+        <v>1227.449638119068</v>
+      </c>
+      <c r="AV152">
+        <v>1197.916106876707</v>
+      </c>
+    </row>
+    <row r="153" spans="1:48">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="D153">
+        <v>1369.132141935154</v>
+      </c>
+      <c r="AQ153">
+        <v>1214.761352112725</v>
+      </c>
+    </row>
+    <row r="154" spans="1:48">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="AH154">
+        <v>1236.749418057936</v>
+      </c>
+      <c r="AM154">
+        <v>1231.147789596667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:48">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="AN155">
+        <v>1244.837542175923</v>
+      </c>
+      <c r="AU155">
+        <v>1237.516385165518</v>
+      </c>
+    </row>
+    <row r="156" spans="1:48">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="AP156">
+        <v>1208.128754175317</v>
+      </c>
+      <c r="AV156">
+        <v>1172.998834244298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:48">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="N157">
+        <v>1211.60922194613</v>
+      </c>
+      <c r="AQ157">
+        <v>1201.753292915542</v>
+      </c>
+    </row>
+    <row r="158" spans="1:48">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="V158">
+        <v>1032.875237644598</v>
+      </c>
+      <c r="AH158">
+        <v>1236.123912713985</v>
+      </c>
+    </row>
+    <row r="159" spans="1:48">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="AP159">
+        <v>1233.961653901619</v>
+      </c>
+      <c r="AU159">
+        <v>1211.683485439216</v>
+      </c>
+    </row>
+    <row r="160" spans="1:48">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="N160">
+        <v>1201.13829799492</v>
+      </c>
+      <c r="AH160">
+        <v>1246.594836665195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:42">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="Q161">
+        <v>1559.086986310229</v>
+      </c>
+      <c r="AL161">
+        <v>1236.082430425228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:42">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="D162">
+        <v>1348.565008621878</v>
+      </c>
+      <c r="AM162">
+        <v>1251.714922909943</v>
+      </c>
+    </row>
+    <row r="163" spans="1:42">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="AH163">
+        <v>1233.939056772713</v>
+      </c>
+      <c r="AL163">
+        <v>1248.73821031771</v>
+      </c>
+    </row>
+    <row r="164" spans="1:42">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="D164">
+        <v>1353.439083873054</v>
+      </c>
+      <c r="AP164">
+        <v>1229.087578650443</v>
+      </c>
+    </row>
+    <row r="165" spans="1:42">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="D165">
+        <v>1370.925361847407</v>
+      </c>
+      <c r="AL165">
+        <v>1231.251932343357</v>
+      </c>
+    </row>
+    <row r="166" spans="1:42">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="Q166">
+        <v>1564.35294342702</v>
+      </c>
+      <c r="AM166">
+        <v>1246.448965793152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:42">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="D167">
+        <v>1339.190088530342</v>
+      </c>
+      <c r="AM167">
+        <v>1278.184239110217</v>
+      </c>
+    </row>
+    <row r="168" spans="1:42">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="Q168">
+        <v>1570.85786689829</v>
+      </c>
+      <c r="AM168">
+        <v>1271.679315638947</v>
       </c>
     </row>
   </sheetData>
